--- a/Streamflow_Generation/consumptive.xlsx
+++ b/Streamflow_Generation/consumptive.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyungmi1\Documents\Code\project-westernwaternetwork\Streamflow_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74345405-6112-4A39-944F-172DFEC289F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6466F627-FD01-42AA-915A-3D6F1685CBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91C0396D-DF00-9F4F-9744-9ABABC1C2C0F}"/>
   </bookViews>
@@ -1343,6 +1343,7 @@
       <sheetName val="Monthly"/>
       <sheetName val="2010-2019"/>
       <sheetName val="excluding_NM calculation"/>
+      <sheetName val="NM"/>
       <sheetName val="excluding_NM"/>
     </sheetNames>
     <sheetDataSet>
@@ -1351,1204 +1352,1211 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4">
+        <row r="122">
+          <cell r="G122">
+            <v>5.8104237646045987E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
         <row r="2">
           <cell r="G2">
-            <v>0.25588727549196805</v>
+            <v>0.27357637236718285</v>
           </cell>
         </row>
         <row r="3">
           <cell r="G3">
-            <v>0.23633537080924102</v>
+            <v>0.25267287434960639</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>0.31665230632390823</v>
+            <v>0.33854199705415172</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0.36327029567744717</v>
+            <v>0.38838261687345749</v>
           </cell>
         </row>
         <row r="6">
           <cell r="G6">
-            <v>0.46982211974417748</v>
+            <v>0.50230020594168512</v>
           </cell>
         </row>
         <row r="7">
           <cell r="G7">
-            <v>0.51749267905713681</v>
+            <v>0.55326615827550252</v>
           </cell>
         </row>
         <row r="8">
           <cell r="G8">
-            <v>0.56073158469174267</v>
+            <v>0.59949410347480847</v>
           </cell>
         </row>
         <row r="9">
           <cell r="G9">
-            <v>0.54271676629896315</v>
+            <v>0.58023394817683649</v>
           </cell>
         </row>
         <row r="10">
           <cell r="G10">
-            <v>0.45526156863886102</v>
+            <v>0.48673310615760668</v>
           </cell>
         </row>
         <row r="11">
           <cell r="G11">
-            <v>0.39014842142693407</v>
+            <v>0.41711878644045264</v>
           </cell>
         </row>
         <row r="12">
           <cell r="G12">
-            <v>0.29693750390936618</v>
+            <v>0.31746434043313898</v>
           </cell>
         </row>
         <row r="13">
           <cell r="G13">
-            <v>0.26195208335339071</v>
+            <v>0.28006043114127405</v>
           </cell>
         </row>
         <row r="14">
           <cell r="G14">
-            <v>0.265936811534838</v>
+            <v>0.28369719219507233</v>
           </cell>
         </row>
         <row r="15">
           <cell r="G15">
-            <v>0.24561703916334823</v>
+            <v>0.26202037981786036</v>
           </cell>
         </row>
         <row r="16">
           <cell r="G16">
-            <v>0.32908828524994865</v>
+            <v>0.35106618738064777</v>
           </cell>
         </row>
         <row r="17">
           <cell r="G17">
-            <v>0.37753711657620309</v>
+            <v>0.40275063577673031</v>
           </cell>
         </row>
         <row r="18">
           <cell r="G18">
-            <v>0.48827358168979068</v>
+            <v>0.52088254856089522</v>
           </cell>
         </row>
         <row r="19">
           <cell r="G19">
-            <v>0.53781632086428588</v>
+            <v>0.57373396057993364</v>
           </cell>
         </row>
         <row r="20">
           <cell r="G20">
-            <v>0.58275336072535455</v>
+            <v>0.62167208528168505</v>
           </cell>
         </row>
         <row r="21">
           <cell r="G21">
-            <v>0.5640310410846292</v>
+            <v>0.60169941025863127</v>
           </cell>
         </row>
         <row r="22">
           <cell r="G22">
-            <v>0.47314118978912556</v>
+            <v>0.5047395517766694</v>
           </cell>
         </row>
         <row r="23">
           <cell r="G23">
-            <v>0.40547083484378199</v>
+            <v>0.43254988543435874</v>
           </cell>
         </row>
         <row r="24">
           <cell r="G24">
-            <v>0.30859921761623116</v>
+            <v>0.32920877349035937</v>
           </cell>
         </row>
         <row r="25">
           <cell r="G25">
-            <v>0.27223980437470191</v>
+            <v>0.29042112545115256</v>
           </cell>
         </row>
         <row r="26">
           <cell r="G26">
-            <v>0.21497038753171988</v>
+            <v>0.23356785759432633</v>
           </cell>
         </row>
         <row r="27">
           <cell r="G27">
-            <v>0.19854487157533537</v>
+            <v>0.21572134107703131</v>
           </cell>
         </row>
         <row r="28">
           <cell r="G28">
-            <v>0.26601896820539661</v>
+            <v>0.28903274165619491</v>
           </cell>
         </row>
         <row r="29">
           <cell r="G29">
-            <v>0.30518264767328962</v>
+            <v>0.33158454059862796</v>
           </cell>
         </row>
         <row r="30">
           <cell r="G30">
-            <v>0.39469662162060148</v>
+            <v>0.42884252742968859</v>
           </cell>
         </row>
         <row r="31">
           <cell r="G31">
-            <v>0.43474456300283082</v>
+            <v>0.47235508735532133</v>
           </cell>
         </row>
         <row r="32">
           <cell r="G32">
-            <v>0.4710694810076359</v>
+            <v>0.51182253853819637</v>
           </cell>
         </row>
         <row r="33">
           <cell r="G33">
-            <v>0.45593526816425073</v>
+            <v>0.49537903805985989</v>
           </cell>
         </row>
         <row r="34">
           <cell r="G34">
-            <v>0.38246433180561412</v>
+            <v>0.41555200049542446</v>
           </cell>
         </row>
         <row r="35">
           <cell r="G35">
-            <v>0.32776290727152374</v>
+            <v>0.35611825856248042</v>
           </cell>
         </row>
         <row r="36">
           <cell r="G36">
-            <v>0.24945660219084109</v>
+            <v>0.27103753593911906</v>
           </cell>
         </row>
         <row r="37">
           <cell r="G37">
-            <v>0.22006542046670602</v>
+            <v>0.23910367087847761</v>
           </cell>
         </row>
         <row r="38">
           <cell r="G38">
-            <v>0.23408543990994765</v>
+            <v>0.25405999916732858</v>
           </cell>
         </row>
         <row r="39">
           <cell r="G39">
-            <v>0.21619937582202398</v>
+            <v>0.23464771351200212</v>
           </cell>
         </row>
         <row r="40">
           <cell r="G40">
-            <v>0.28967323319153548</v>
+            <v>0.31439111040716827</v>
           </cell>
         </row>
         <row r="41">
           <cell r="G41">
-            <v>0.33231932618134874</v>
+            <v>0.36067620337856299</v>
           </cell>
         </row>
         <row r="42">
           <cell r="G42">
-            <v>0.42979283502196647</v>
+            <v>0.46646714699475134</v>
           </cell>
         </row>
         <row r="43">
           <cell r="G43">
-            <v>0.47340181802463077</v>
+            <v>0.51379729358399306</v>
           </cell>
         </row>
         <row r="44">
           <cell r="G44">
-            <v>0.51295672839382234</v>
+            <v>0.55672743267904545</v>
           </cell>
         </row>
         <row r="45">
           <cell r="G45">
-            <v>0.49647678940403078</v>
+            <v>0.53884125706882902</v>
           </cell>
         </row>
         <row r="46">
           <cell r="G46">
-            <v>0.4164728565108573</v>
+            <v>0.45201057194786654</v>
           </cell>
         </row>
         <row r="47">
           <cell r="G47">
-            <v>0.35690741043808627</v>
+            <v>0.38736239397715849</v>
           </cell>
         </row>
         <row r="48">
           <cell r="G48">
-            <v>0.27163815041114681</v>
+            <v>0.29481709026336544</v>
           </cell>
         </row>
         <row r="49">
           <cell r="G49">
-            <v>0.23963352046018585</v>
+            <v>0.26008149858444757</v>
           </cell>
         </row>
         <row r="50">
           <cell r="G50">
-            <v>0.21588135358424795</v>
+            <v>0.23535622768027362</v>
           </cell>
         </row>
         <row r="51">
           <cell r="G51">
-            <v>0.19938623228545641</v>
+            <v>0.21737306489406716</v>
           </cell>
         </row>
         <row r="52">
           <cell r="G52">
-            <v>0.26714625951349785</v>
+            <v>0.29124579234887649</v>
           </cell>
         </row>
         <row r="53">
           <cell r="G53">
-            <v>0.30647590036284889</v>
+            <v>0.33412339966715232</v>
           </cell>
         </row>
         <row r="54">
           <cell r="G54">
-            <v>0.39636920186512864</v>
+            <v>0.43212606633583939</v>
           </cell>
         </row>
         <row r="55">
           <cell r="G55">
-            <v>0.43658685180811246</v>
+            <v>0.47597179094147346</v>
           </cell>
         </row>
         <row r="56">
           <cell r="G56">
-            <v>0.47306570155925326</v>
+            <v>0.51574143442850806</v>
           </cell>
         </row>
         <row r="57">
           <cell r="G57">
-            <v>0.45786735544481449</v>
+            <v>0.49917203022066609</v>
           </cell>
         </row>
         <row r="58">
           <cell r="G58">
-            <v>0.38408507606987391</v>
+            <v>0.41873377719405014</v>
           </cell>
         </row>
         <row r="59">
           <cell r="G59">
-            <v>0.32915184686097404</v>
+            <v>0.35884496611219358</v>
           </cell>
         </row>
         <row r="60">
           <cell r="G60">
-            <v>0.25051370823592983</v>
+            <v>0.27311280188724563</v>
           </cell>
         </row>
         <row r="61">
           <cell r="G61">
-            <v>0.22099797740946589</v>
+            <v>0.24093442728838543</v>
           </cell>
         </row>
         <row r="62">
           <cell r="G62">
-            <v>0.23438959961723466</v>
+            <v>0.25438480393083174</v>
           </cell>
         </row>
         <row r="63">
           <cell r="G63">
-            <v>0.216480295211504</v>
+            <v>0.23494770050461644</v>
           </cell>
         </row>
         <row r="64">
           <cell r="G64">
-            <v>0.29004962108584587</v>
+            <v>0.31479304589720192</v>
           </cell>
         </row>
         <row r="65">
           <cell r="G65">
-            <v>0.33275112642068022</v>
+            <v>0.36113731236590269</v>
           </cell>
         </row>
         <row r="66">
           <cell r="G66">
-            <v>0.43035128779435849</v>
+            <v>0.4670635051458108</v>
           </cell>
         </row>
         <row r="67">
           <cell r="G67">
-            <v>0.47401693427643571</v>
+            <v>0.51445416128838595</v>
           </cell>
         </row>
         <row r="68">
           <cell r="G68">
-            <v>0.51362324045206564</v>
+            <v>0.5574391847167518</v>
           </cell>
         </row>
         <row r="69">
           <cell r="G69">
-            <v>0.4971218881978644</v>
+            <v>0.53953014240159136</v>
           </cell>
         </row>
         <row r="70">
           <cell r="G70">
-            <v>0.41701400192416477</v>
+            <v>0.45258844799054787</v>
           </cell>
         </row>
         <row r="71">
           <cell r="G71">
-            <v>0.3573711592877763</v>
+            <v>0.38785762010948205</v>
           </cell>
         </row>
         <row r="72">
           <cell r="G72">
-            <v>0.27199110435970858</v>
+            <v>0.29519400121193468</v>
           </cell>
         </row>
         <row r="73">
           <cell r="G73">
-            <v>0.23994488908468195</v>
+            <v>0.26041400157553674</v>
           </cell>
         </row>
         <row r="74">
           <cell r="G74">
-            <v>0.2312461249660214</v>
+            <v>0.25109550598539193</v>
           </cell>
         </row>
         <row r="75">
           <cell r="G75">
-            <v>0.21357700802813151</v>
+            <v>0.23190973213302393</v>
           </cell>
         </row>
         <row r="76">
           <cell r="G76">
-            <v>0.28615967190309072</v>
+            <v>0.31072264505914737</v>
           </cell>
         </row>
         <row r="77">
           <cell r="G77">
-            <v>0.3282884935531204</v>
+            <v>0.35646766150142023</v>
           </cell>
         </row>
         <row r="78">
           <cell r="G78">
-            <v>0.42457970762822611</v>
+            <v>0.4610241859564313</v>
           </cell>
         </row>
         <row r="79">
           <cell r="G79">
-            <v>0.46765974001706107</v>
+            <v>0.50780206183275589</v>
           </cell>
         </row>
         <row r="80">
           <cell r="G80">
-            <v>0.50673487322386224</v>
+            <v>0.55023127159983853</v>
           </cell>
         </row>
         <row r="81">
           <cell r="G81">
-            <v>0.49045482593629147</v>
+            <v>0.5325538004130701</v>
           </cell>
         </row>
         <row r="82">
           <cell r="G82">
-            <v>0.41142129240808428</v>
+            <v>0.44673629711871399</v>
           </cell>
         </row>
         <row r="83">
           <cell r="G83">
-            <v>0.35257833920475917</v>
+            <v>0.38284246490667295</v>
           </cell>
         </row>
         <row r="84">
           <cell r="G84">
-            <v>0.26834334377943336</v>
+            <v>0.29137702391341425</v>
           </cell>
         </row>
         <row r="85">
           <cell r="G85">
-            <v>0.23672691065151935</v>
+            <v>0.25704674367683356</v>
           </cell>
         </row>
         <row r="86">
           <cell r="G86">
-            <v>0.2445870484698805</v>
+            <v>0.26490440506775398</v>
           </cell>
         </row>
         <row r="87">
           <cell r="G87">
-            <v>0.22589857461310703</v>
+            <v>0.24466351709096282</v>
           </cell>
         </row>
         <row r="88">
           <cell r="G88">
-            <v>0.3026686373757424</v>
+            <v>0.3278107153190587</v>
           </cell>
         </row>
         <row r="89">
           <cell r="G89">
-            <v>0.34722793169649613</v>
+            <v>0.37607146103770139</v>
           </cell>
         </row>
         <row r="90">
           <cell r="G90">
-            <v>0.44907432522059143</v>
+            <v>0.48637803063563817</v>
           </cell>
         </row>
         <row r="91">
           <cell r="G91">
-            <v>0.4946397070038332</v>
+            <v>0.53572843748868604</v>
           </cell>
         </row>
         <row r="92">
           <cell r="G92">
-            <v>0.53596914117715488</v>
+            <v>0.58049102504171801</v>
           </cell>
         </row>
         <row r="93">
           <cell r="G93">
-            <v>0.51874987440845943</v>
+            <v>0.56184138824532825</v>
           </cell>
         </row>
         <row r="94">
           <cell r="G94">
-            <v>0.4351567819895058</v>
+            <v>0.47130438494303106</v>
           </cell>
         </row>
         <row r="95">
           <cell r="G95">
-            <v>0.37291909368503223</v>
+            <v>0.40389673643412333</v>
           </cell>
         </row>
         <row r="96">
           <cell r="G96">
-            <v>0.28382445950691726</v>
+            <v>0.30740118930956201</v>
           </cell>
         </row>
         <row r="97">
           <cell r="G97">
-            <v>0.25038402861088349</v>
+            <v>0.27118292874694661</v>
           </cell>
         </row>
         <row r="98">
           <cell r="G98">
-            <v>0.24093323925877094</v>
+            <v>0.2607856279159057</v>
           </cell>
         </row>
         <row r="99">
           <cell r="G99">
-            <v>0.22252394665197223</v>
+            <v>0.24085944858622294</v>
           </cell>
         </row>
         <row r="100">
           <cell r="G100">
-            <v>0.29814716552318171</v>
+            <v>0.32271386053462492</v>
           </cell>
         </row>
         <row r="101">
           <cell r="G101">
-            <v>0.34204080252050706</v>
+            <v>0.37022424026087769</v>
           </cell>
         </row>
         <row r="102">
           <cell r="G102">
-            <v>0.44236574471222545</v>
+            <v>0.47881574521712783</v>
           </cell>
         </row>
         <row r="103">
           <cell r="G103">
-            <v>0.48725043954696012</v>
+            <v>0.52739884384769153</v>
           </cell>
         </row>
         <row r="104">
           <cell r="G104">
-            <v>0.5279624662646657</v>
+            <v>0.57146545534542204</v>
           </cell>
         </row>
         <row r="105">
           <cell r="G105">
-            <v>0.51100043272202056</v>
+            <v>0.55310578616171735</v>
           </cell>
         </row>
         <row r="106">
           <cell r="G106">
-            <v>0.42865611129472919</v>
+            <v>0.4639764670408249</v>
           </cell>
         </row>
         <row r="107">
           <cell r="G107">
-            <v>0.36734817229721067</v>
+            <v>0.39761688371024934</v>
           </cell>
         </row>
         <row r="108">
           <cell r="G108">
-            <v>0.2795844949177364</v>
+            <v>0.30262166518403688</v>
           </cell>
         </row>
         <row r="109">
           <cell r="G109">
-            <v>0.24664362013146301</v>
+            <v>0.2669665320788408</v>
           </cell>
         </row>
         <row r="110">
           <cell r="G110">
-            <v>0.23736807236103155</v>
+            <v>0.25899129323838771</v>
           </cell>
         </row>
         <row r="111">
           <cell r="G111">
-            <v>0.21923118799816996</v>
+            <v>0.23920221592175453</v>
           </cell>
         </row>
         <row r="112">
           <cell r="G112">
-            <v>0.29373538569384722</v>
+            <v>0.3204934288509444</v>
           </cell>
         </row>
         <row r="113">
           <cell r="G113">
-            <v>0.33697951437872187</v>
+            <v>0.36767691356167753</v>
           </cell>
         </row>
         <row r="114">
           <cell r="G114">
-            <v>0.4358199160229429</v>
+            <v>0.47552125501592019</v>
           </cell>
         </row>
         <row r="115">
           <cell r="G115">
-            <v>0.48004043754256231</v>
+            <v>0.52377007779197937</v>
           </cell>
         </row>
         <row r="116">
           <cell r="G116">
-            <v>0.52015003526192649</v>
+            <v>0.56753348911045542</v>
           </cell>
         </row>
         <row r="117">
           <cell r="G117">
-            <v>0.50343899440377182</v>
+            <v>0.54930014357175883</v>
           </cell>
         </row>
         <row r="118">
           <cell r="G118">
-            <v>0.42231314847563767</v>
+            <v>0.46078407844557562</v>
           </cell>
         </row>
         <row r="119">
           <cell r="G119">
-            <v>0.36191240283738763</v>
+            <v>0.39488108201554084</v>
           </cell>
         </row>
         <row r="120">
           <cell r="G120">
-            <v>0.27544739291608467</v>
+            <v>0.30053947778610607</v>
           </cell>
         </row>
         <row r="121">
           <cell r="G121">
-            <v>0.24299395488503814</v>
+            <v>0.26512966971002855</v>
           </cell>
         </row>
         <row r="122">
           <cell r="G122">
-            <v>0.23596913510005812</v>
+            <v>0.25547571168171013</v>
           </cell>
         </row>
         <row r="123">
           <cell r="G123">
-            <v>0.21793914111668522</v>
+            <v>0.23595525387876073</v>
           </cell>
         </row>
         <row r="124">
           <cell r="G124">
-            <v>0.29200424564697297</v>
+            <v>0.31614300929275624</v>
           </cell>
         </row>
         <row r="125">
           <cell r="G125">
-            <v>0.33499351350606815</v>
+            <v>0.36268601923480226</v>
           </cell>
         </row>
         <row r="126">
           <cell r="G126">
-            <v>0.43325139569274662</v>
+            <v>0.46906646754782033</v>
           </cell>
         </row>
         <row r="127">
           <cell r="G127">
-            <v>0.47721130198034206</v>
+            <v>0.51666035451749781</v>
           </cell>
         </row>
         <row r="128">
           <cell r="G128">
-            <v>0.51708451234476771</v>
+            <v>0.55982971558909189</v>
           </cell>
         </row>
         <row r="129">
           <cell r="G129">
-            <v>0.50047195860618898</v>
+            <v>0.54184387185823946</v>
           </cell>
         </row>
         <row r="130">
           <cell r="G130">
-            <v>0.41982423076515896</v>
+            <v>0.45452933533225071</v>
           </cell>
         </row>
         <row r="131">
           <cell r="G131">
-            <v>0.35977945909098691</v>
+            <v>0.38952091476182199</v>
           </cell>
         </row>
         <row r="132">
           <cell r="G132">
-            <v>0.27382403381157028</v>
+            <v>0.29645991575934011</v>
           </cell>
         </row>
         <row r="133">
           <cell r="G133">
-            <v>0.2415618612833218</v>
+            <v>0.26153076503139661</v>
           </cell>
         </row>
         <row r="134">
           <cell r="G134">
-            <v>0.23517463889072451</v>
+            <v>0.25534185599746639</v>
           </cell>
         </row>
         <row r="135">
           <cell r="G135">
-            <v>0.21720535099023836</v>
+            <v>0.23583162587611836</v>
           </cell>
         </row>
         <row r="136">
           <cell r="G136">
-            <v>0.29102108203882793</v>
+            <v>0.31597736717143987</v>
           </cell>
         </row>
         <row r="137">
           <cell r="G137">
-            <v>0.33386560719527436</v>
+            <v>0.36249599105188524</v>
           </cell>
         </row>
         <row r="138">
           <cell r="G138">
-            <v>0.43179266003471051</v>
+            <v>0.46882070166833179</v>
           </cell>
         </row>
         <row r="139">
           <cell r="G139">
-            <v>0.4756045555288887</v>
+            <v>0.516389651972742</v>
           </cell>
         </row>
         <row r="140">
           <cell r="G140">
-            <v>0.51534351479952167</v>
+            <v>0.55953639459530002</v>
           </cell>
         </row>
         <row r="141">
           <cell r="G141">
-            <v>0.49878689469381848</v>
+            <v>0.5415599744899009</v>
           </cell>
         </row>
         <row r="142">
           <cell r="G142">
-            <v>0.41841070369608752</v>
+            <v>0.4542911861368174</v>
           </cell>
         </row>
         <row r="143">
           <cell r="G143">
-            <v>0.3585680997480683</v>
+            <v>0.38931682652098892</v>
           </cell>
         </row>
         <row r="144">
           <cell r="G144">
-            <v>0.2729020820622643</v>
+            <v>0.29630458653209735</v>
           </cell>
         </row>
         <row r="145">
           <cell r="G145">
-            <v>0.2407485346462267</v>
+            <v>0.2613937368212641</v>
           </cell>
         </row>
         <row r="146">
           <cell r="G146">
-            <v>0.25102682450557612</v>
+            <v>0.27438539113675037</v>
           </cell>
         </row>
         <row r="147">
           <cell r="G147">
-            <v>0.23184629848643562</v>
+            <v>0.25342007739254696</v>
           </cell>
         </row>
         <row r="148">
           <cell r="G148">
-            <v>0.31063765392801906</v>
+            <v>0.33954313186537027</v>
           </cell>
         </row>
         <row r="149">
           <cell r="G149">
-            <v>0.35637015785872334</v>
+            <v>0.38953114013263224</v>
           </cell>
         </row>
         <row r="150">
           <cell r="G150">
-            <v>0.46089808324822829</v>
+            <v>0.50378560576275966</v>
           </cell>
         </row>
         <row r="151">
           <cell r="G151">
-            <v>0.5076631640977155</v>
+            <v>0.55490227437258499</v>
           </cell>
         </row>
         <row r="152">
           <cell r="G152">
-            <v>0.55008076831692987</v>
+            <v>0.60126692463534792</v>
           </cell>
         </row>
         <row r="153">
           <cell r="G153">
-            <v>0.53240813240140916</v>
+            <v>0.5819498132961578</v>
           </cell>
         </row>
         <row r="154">
           <cell r="G154">
-            <v>0.44661410253839634</v>
+            <v>0.48817247102396616</v>
           </cell>
         </row>
         <row r="155">
           <cell r="G155">
-            <v>0.38273774703479019</v>
+            <v>0.41835228816594749</v>
           </cell>
         </row>
         <row r="156">
           <cell r="G156">
-            <v>0.29129732433811456</v>
+            <v>0.31840314449672263</v>
           </cell>
         </row>
         <row r="157">
           <cell r="G157">
-            <v>0.25697643437094503</v>
+            <v>0.28088862453913938</v>
           </cell>
         </row>
         <row r="158">
           <cell r="G158">
-            <v>0.19193870889010725</v>
+            <v>0.20905690126369364</v>
           </cell>
         </row>
         <row r="159">
           <cell r="G159">
-            <v>0.17727300371219248</v>
+            <v>0.1930832245776784</v>
           </cell>
         </row>
         <row r="160">
           <cell r="G160">
-            <v>0.23751800368359238</v>
+            <v>0.25870121838143539</v>
           </cell>
         </row>
         <row r="161">
           <cell r="G161">
-            <v>0.27248573183798391</v>
+            <v>0.29678756862553191</v>
           </cell>
         </row>
         <row r="162">
           <cell r="G162">
-            <v>0.35240928216667555</v>
+            <v>0.38383915851236122</v>
           </cell>
         </row>
         <row r="163">
           <cell r="G163">
-            <v>0.38816653343681884</v>
+            <v>0.42278544606149415</v>
           </cell>
         </row>
         <row r="164">
           <cell r="G164">
-            <v>0.42059964174738795</v>
+            <v>0.45811112456045372</v>
           </cell>
         </row>
         <row r="165">
           <cell r="G165">
-            <v>0.40708689096072986</v>
+            <v>0.4433932293357617</v>
           </cell>
         </row>
         <row r="166">
           <cell r="G166">
-            <v>0.34148754573210793</v>
+            <v>0.37194335912602305</v>
           </cell>
         </row>
         <row r="167">
           <cell r="G167">
-            <v>0.29264676854379068</v>
+            <v>0.31874668195057099</v>
           </cell>
         </row>
         <row r="168">
           <cell r="G168">
-            <v>0.22273011040443033</v>
+            <v>0.24259445616011693</v>
           </cell>
         </row>
         <row r="169">
           <cell r="G169">
-            <v>0.19648786589039183</v>
+            <v>0.21401177811652294</v>
           </cell>
         </row>
         <row r="170">
           <cell r="G170">
-            <v>0.21760464174632829</v>
+            <v>0.23722045313365828</v>
           </cell>
         </row>
         <row r="171">
           <cell r="G171">
-            <v>0.20097784697600093</v>
+            <v>0.21909484810095245</v>
           </cell>
         </row>
         <row r="172">
           <cell r="G172">
-            <v>0.26927877341022954</v>
+            <v>0.29355271162880969</v>
           </cell>
         </row>
         <row r="173">
           <cell r="G173">
-            <v>0.30892236589722444</v>
+            <v>0.33676994678583366</v>
           </cell>
         </row>
         <row r="174">
           <cell r="G174">
-            <v>0.39953324703182175</v>
+            <v>0.43554887957462329</v>
           </cell>
         </row>
         <row r="175">
           <cell r="G175">
-            <v>0.44007193720779808</v>
+            <v>0.47974190034759295</v>
           </cell>
         </row>
         <row r="176">
           <cell r="G176">
-            <v>0.47684198195516592</v>
+            <v>0.51982655390421983</v>
           </cell>
         </row>
         <row r="177">
           <cell r="G177">
-            <v>0.46152231396874815</v>
+            <v>0.50312590564400617</v>
           </cell>
         </row>
         <row r="178">
           <cell r="G178">
-            <v>0.38715106233424407</v>
+            <v>0.42205051188737436</v>
           </cell>
         </row>
         <row r="179">
           <cell r="G179">
-            <v>0.33177932474085969</v>
+            <v>0.361687329478733</v>
           </cell>
         </row>
         <row r="180">
           <cell r="G180">
-            <v>0.25251345161660743</v>
+            <v>0.27527609215554083</v>
           </cell>
         </row>
         <row r="181">
           <cell r="G181">
-            <v>0.22276210938284083</v>
+            <v>0.24284283692077399</v>
           </cell>
         </row>
         <row r="182">
           <cell r="G182">
-            <v>0.2142367320523425</v>
+            <v>0.23145895592232837</v>
           </cell>
         </row>
         <row r="183">
           <cell r="G183">
-            <v>0.19786727344376931</v>
+            <v>0.21377357693872617</v>
           </cell>
         </row>
         <row r="184">
           <cell r="G184">
-            <v>0.26511109305159941</v>
+            <v>0.28642304339369007</v>
           </cell>
         </row>
         <row r="185">
           <cell r="G185">
-            <v>0.30414111388695181</v>
+            <v>0.32859063895788226</v>
           </cell>
         </row>
         <row r="186">
           <cell r="G186">
-            <v>0.39334959265317704</v>
+            <v>0.42497047614474215</v>
           </cell>
         </row>
         <row r="187">
           <cell r="G187">
-            <v>0.43326085757512633</v>
+            <v>0.46809015790929048</v>
           </cell>
         </row>
         <row r="188">
           <cell r="G188">
-            <v>0.4694618051324751</v>
+            <v>0.50720125452075171</v>
           </cell>
         </row>
         <row r="189">
           <cell r="G189">
-            <v>0.454379242650361</v>
+            <v>0.49090622363925712</v>
           </cell>
         </row>
         <row r="190">
           <cell r="G190">
-            <v>0.38115904945525225</v>
+            <v>0.41179995037314693</v>
           </cell>
         </row>
         <row r="191">
           <cell r="G191">
-            <v>0.32664431109826741</v>
+            <v>0.35290284014555157</v>
           </cell>
         </row>
         <row r="192">
           <cell r="G192">
-            <v>0.24860525142962439</v>
+            <v>0.26859031773622322</v>
           </cell>
         </row>
         <row r="193">
           <cell r="G193">
-            <v>0.21931437655130598</v>
+            <v>0.23694478593390497</v>
           </cell>
         </row>
         <row r="194">
           <cell r="G194">
-            <v>0.23618286983002471</v>
+            <v>0.25351346754178627</v>
           </cell>
         </row>
         <row r="195">
           <cell r="G195">
-            <v>0.21813654474515543</v>
+            <v>0.23414294142385045</v>
           </cell>
         </row>
         <row r="196">
           <cell r="G196">
-            <v>0.29226873552852456</v>
+            <v>0.31371479502816313</v>
           </cell>
         </row>
         <row r="197">
           <cell r="G197">
-            <v>0.33529694195284121</v>
+            <v>0.35990031991649502</v>
           </cell>
         </row>
         <row r="198">
           <cell r="G198">
-            <v>0.43364382358390607</v>
+            <v>0.46546368698945856</v>
           </cell>
         </row>
         <row r="199">
           <cell r="G199">
-            <v>0.47764354761586769</v>
+            <v>0.51269201738552805</v>
           </cell>
         </row>
         <row r="200">
           <cell r="G200">
-            <v>0.51755287410135531</v>
+            <v>0.5555298055446547</v>
           </cell>
         </row>
         <row r="201">
           <cell r="G201">
-            <v>0.50092527314193602</v>
+            <v>0.53768210651738335</v>
           </cell>
         </row>
         <row r="202">
           <cell r="G202">
-            <v>0.42020449667814785</v>
+            <v>0.45103821079908812</v>
           </cell>
         </row>
         <row r="203">
           <cell r="G203">
-            <v>0.360105338005209</v>
+            <v>0.38652910341765229</v>
           </cell>
         </row>
         <row r="204">
           <cell r="G204">
-            <v>0.27407205652818645</v>
+            <v>0.29418288234355366</v>
           </cell>
         </row>
         <row r="205">
           <cell r="G205">
-            <v>0.24178066175978974</v>
+            <v>0.25952201356256016</v>
           </cell>
         </row>
         <row r="206">
           <cell r="G206">
-            <v>0.2528152445324236</v>
+            <v>0.27322852050291047</v>
           </cell>
         </row>
         <row r="207">
           <cell r="G207">
-            <v>0.23349806842847379</v>
+            <v>0.25235160124537936</v>
           </cell>
         </row>
         <row r="208">
           <cell r="G208">
-            <v>0.31285076642096477</v>
+            <v>0.33811154151520723</v>
           </cell>
         </row>
         <row r="209">
           <cell r="G209">
-            <v>0.35890908782583203</v>
+            <v>0.38788878907626345</v>
           </cell>
         </row>
         <row r="210">
           <cell r="G210">
-            <v>0.46418171384842516</v>
+            <v>0.50166153213535691</v>
           </cell>
         </row>
         <row r="211">
           <cell r="G211">
-            <v>0.51127996868166137</v>
+            <v>0.55256268135266118</v>
           </cell>
         </row>
         <row r="212">
           <cell r="G212">
-            <v>0.55399977364386777</v>
+            <v>0.59873184780298416</v>
           </cell>
         </row>
         <row r="213">
           <cell r="G213">
-            <v>0.53620123048293311</v>
+            <v>0.57949618175775208</v>
           </cell>
         </row>
         <row r="214">
           <cell r="G214">
-            <v>0.44979596808932043</v>
+            <v>0.48611422589059011</v>
           </cell>
         </row>
         <row r="215">
           <cell r="G215">
-            <v>0.38546453072882642</v>
+            <v>0.41658842065545859</v>
           </cell>
         </row>
         <row r="216">
           <cell r="G216">
-            <v>0.29337264823881504</v>
+            <v>0.31706068509659019</v>
           </cell>
         </row>
         <row r="217">
           <cell r="G217">
-            <v>0.25880724190540694</v>
+            <v>0.27970433480795959</v>
           </cell>
         </row>
         <row r="218">
           <cell r="G218">
-            <v>0.25290127713037042</v>
+            <v>0.27399665348081959</v>
           </cell>
         </row>
         <row r="219">
           <cell r="G219">
-            <v>0.23357752742423024</v>
+            <v>0.25306104250937317</v>
           </cell>
         </row>
         <row r="220">
           <cell r="G220">
-            <v>0.31295722900495421</v>
+            <v>0.3390620814689847</v>
           </cell>
         </row>
         <row r="221">
           <cell r="G221">
-            <v>0.35903122397829973</v>
+            <v>0.38897926883328987</v>
           </cell>
         </row>
         <row r="222">
           <cell r="G222">
-            <v>0.46433967409657251</v>
+            <v>0.50307186355270783</v>
           </cell>
         </row>
         <row r="223">
           <cell r="G223">
-            <v>0.51145395638586488</v>
+            <v>0.55411611222117974</v>
           </cell>
         </row>
         <row r="224">
           <cell r="G224">
-            <v>0.55418829882507936</v>
+            <v>0.60041507500187041</v>
           </cell>
         </row>
         <row r="225">
           <cell r="G225">
-            <v>0.53638369885016324</v>
+            <v>0.58112533133174682</v>
           </cell>
         </row>
         <row r="226">
           <cell r="G226">
-            <v>0.44994903289264077</v>
+            <v>0.48748084884506815</v>
           </cell>
         </row>
         <row r="227">
           <cell r="G227">
-            <v>0.3855957036533717</v>
+            <v>0.41775958427897614</v>
           </cell>
         </row>
         <row r="228">
           <cell r="G228">
-            <v>0.29347248245229851</v>
+            <v>0.31795204434332214</v>
           </cell>
         </row>
         <row r="229">
           <cell r="G229">
-            <v>0.25889531356987383</v>
+            <v>0.28049067337625644</v>
           </cell>
         </row>
         <row r="230">
           <cell r="G230">
-            <v>0.25225897843174677</v>
+            <v>0.27201815448547617</v>
           </cell>
         </row>
         <row r="231">
           <cell r="G231">
-            <v>0.23298430565961661</v>
+            <v>0.25123371720446613</v>
           </cell>
         </row>
         <row r="232">
           <cell r="G232">
-            <v>0.3121624049408151</v>
+            <v>0.33661375234151819</v>
           </cell>
         </row>
         <row r="233">
           <cell r="G233">
-            <v>0.35811938481899158</v>
+            <v>0.38617049331424891</v>
           </cell>
         </row>
         <row r="234">
           <cell r="G234">
-            <v>0.46316038084912164</v>
+            <v>0.49943923824878517</v>
           </cell>
         </row>
         <row r="235">
           <cell r="G235">
-            <v>0.51015500600364427</v>
+            <v>0.55011490214286052</v>
           </cell>
         </row>
         <row r="236">
           <cell r="G236">
-            <v>0.5527808151335506</v>
+            <v>0.59607954532444896</v>
           </cell>
         </row>
         <row r="237">
           <cell r="G237">
-            <v>0.53502143387608481</v>
+            <v>0.57692909072222809</v>
           </cell>
         </row>
         <row r="238">
           <cell r="G238">
-            <v>0.4488062878596652</v>
+            <v>0.48396080450351692</v>
           </cell>
         </row>
         <row r="239">
           <cell r="G239">
-            <v>0.38461639812569037</v>
+            <v>0.41474298934144382</v>
           </cell>
         </row>
         <row r="240">
           <cell r="G240">
-            <v>0.29272714420925044</v>
+            <v>0.31565614841791922</v>
           </cell>
         </row>
         <row r="241">
           <cell r="G241">
-            <v>0.25823779169069416</v>
+            <v>0.27846528179417651</v>
           </cell>
         </row>
       </sheetData>
@@ -2876,8 +2884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE19C92E-C21C-DA48-AC64-49808EC8D5D1}">
   <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="M128" sqref="M128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2918,15 +2926,15 @@
       </c>
       <c r="D2">
         <f>[2]excluding_NM!G2</f>
-        <v>0.25588727549196805</v>
+        <v>0.27357637236718285</v>
       </c>
       <c r="E2">
         <f>C2-D2</f>
-        <v>0.23752692714803192</v>
+        <v>0.21983783027281711</v>
       </c>
       <c r="F2">
-        <f>IF(E2&lt;0, 0.01, E2)</f>
-        <v>0.23752692714803192</v>
+        <f>IF(E2&lt;0.01, 0.01, E2)</f>
+        <v>0.21983783027281711</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2942,15 +2950,15 @@
       </c>
       <c r="D3">
         <f>[2]excluding_NM!G3</f>
-        <v>0.23633537080924102</v>
+        <v>0.25267287434960639</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">C3-D3</f>
-        <v>0.27628904935075893</v>
+        <v>0.25995154581039359</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="1">IF(E3&lt;0, 0.01, E3)</f>
-        <v>0.27628904935075893</v>
+        <f t="shared" ref="F3:F66" si="1">IF(E3&lt;0.01, 0.01, E3)</f>
+        <v>0.25995154581039359</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2966,15 +2974,15 @@
       </c>
       <c r="D4">
         <f>[2]excluding_NM!G4</f>
-        <v>0.31665230632390823</v>
+        <v>0.33854199705415172</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.36665860927609167</v>
+        <v>0.34476891854584818</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>0.36665860927609167</v>
+        <v>0.34476891854584818</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2990,15 +2998,15 @@
       </c>
       <c r="D5">
         <f>[2]excluding_NM!G5</f>
-        <v>0.36327029567744717</v>
+        <v>0.38838261687345749</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1.1311647331225527</v>
+        <v>1.1060524119265425</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>1.1311647331225527</v>
+        <v>1.1060524119265425</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3014,15 +3022,15 @@
       </c>
       <c r="D6">
         <f>[2]excluding_NM!G6</f>
-        <v>0.46982211974417748</v>
+        <v>0.50230020594168512</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>2.8412551164958217</v>
+        <v>2.8087770302983142</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>2.8412551164958217</v>
+        <v>2.8087770302983142</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3038,15 +3046,15 @@
       </c>
       <c r="D7">
         <f>[2]excluding_NM!G7</f>
-        <v>0.51749267905713681</v>
+        <v>0.55326615827550252</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>2.1738694034228629</v>
+        <v>2.1380959242044968</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>2.1738694034228629</v>
+        <v>2.1380959242044968</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3062,15 +3070,15 @@
       </c>
       <c r="D8">
         <f>[2]excluding_NM!G8</f>
-        <v>0.56073158469174267</v>
+        <v>0.59949410347480847</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.6008118617082574</v>
+        <v>0.5620493429251916</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>0.6008118617082574</v>
+        <v>0.5620493429251916</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3086,15 +3094,15 @@
       </c>
       <c r="D9">
         <f>[2]excluding_NM!G9</f>
-        <v>0.54271676629896315</v>
+        <v>0.58023394817683649</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>7.4781823901036826E-2</v>
+        <v>3.7264642023163486E-2</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>7.4781823901036826E-2</v>
+        <v>3.7264642023163486E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3110,15 +3118,15 @@
       </c>
       <c r="D10">
         <f>[2]excluding_NM!G10</f>
-        <v>0.45526156863886102</v>
+        <v>0.48673310615760668</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>7.0651131561138891E-2</v>
+        <v>3.917959404239324E-2</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>7.0651131561138891E-2</v>
+        <v>3.917959404239324E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3134,15 +3142,15 @@
       </c>
       <c r="D11">
         <f>[2]excluding_NM!G11</f>
-        <v>0.39014842142693407</v>
+        <v>0.41711878644045264</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.16884621237306585</v>
+        <v>0.14187584735954728</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>0.16884621237306585</v>
+        <v>0.14187584735954728</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3158,15 +3166,15 @@
       </c>
       <c r="D12">
         <f>[2]excluding_NM!G12</f>
-        <v>0.29693750390936618</v>
+        <v>0.31746434043313898</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.18951247065063376</v>
+        <v>0.16898563412686096</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0.18951247065063376</v>
+        <v>0.16898563412686096</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3182,15 +3190,15 @@
       </c>
       <c r="D13">
         <f>[2]excluding_NM!G13</f>
-        <v>0.26195208335339071</v>
+        <v>0.28006043114127405</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.16893331764660924</v>
+        <v>0.1508249698587259</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>0.16893331764660924</v>
+        <v>0.1508249698587259</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3206,15 +3214,15 @@
       </c>
       <c r="D14">
         <f>[2]excluding_NM!G14</f>
-        <v>0.265936811534838</v>
+        <v>0.28369719219507233</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.12567458626516198</v>
+        <v>0.10791420560492765</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0.12567458626516198</v>
+        <v>0.10791420560492765</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3230,15 +3238,15 @@
       </c>
       <c r="D15">
         <f>[2]excluding_NM!G15</f>
-        <v>0.24561703916334823</v>
+        <v>0.26202037981786036</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.16957479579665172</v>
+        <v>0.15317145514213959</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0.16957479579665172</v>
+        <v>0.15317145514213959</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3254,15 +3262,15 @@
       </c>
       <c r="D16">
         <f>[2]excluding_NM!G16</f>
-        <v>0.32908828524994865</v>
+        <v>0.35106618738064777</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.47994014543005131</v>
+        <v>0.4579622432993522</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>0.47994014543005131</v>
+        <v>0.4579622432993522</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3278,15 +3286,15 @@
       </c>
       <c r="D17">
         <f>[2]excluding_NM!G17</f>
-        <v>0.37753711657620309</v>
+        <v>0.40275063577673031</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.85928438074379665</v>
+        <v>0.83407086154326948</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>0.85928438074379665</v>
+        <v>0.83407086154326948</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3302,15 +3310,15 @@
       </c>
       <c r="D18">
         <f>[2]excluding_NM!G18</f>
-        <v>0.48827358168979068</v>
+        <v>0.52088254856089522</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>3.257178570470209</v>
+        <v>3.2245696035991043</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>3.257178570470209</v>
+        <v>3.2245696035991043</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3326,15 +3334,15 @@
       </c>
       <c r="D19">
         <f>[2]excluding_NM!G19</f>
-        <v>0.53781632086428588</v>
+        <v>0.57373396057993364</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>2.2086095422957142</v>
+        <v>2.1726919025800662</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>2.2086095422957142</v>
+        <v>2.1726919025800662</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3350,15 +3358,15 @@
       </c>
       <c r="D20">
         <f>[2]excluding_NM!G20</f>
-        <v>0.58275336072535455</v>
+        <v>0.62167208528168505</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.68618672231464539</v>
+        <v>0.64726799775831489</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>0.68618672231464539</v>
+        <v>0.64726799775831489</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3374,15 +3382,15 @@
       </c>
       <c r="D21">
         <f>[2]excluding_NM!G21</f>
-        <v>0.5640310410846292</v>
+        <v>0.60169941025863127</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.39828564963537072</v>
+        <v>0.36061728046136865</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>0.39828564963537072</v>
+        <v>0.36061728046136865</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3398,15 +3406,15 @@
       </c>
       <c r="D22">
         <f>[2]excluding_NM!G22</f>
-        <v>0.47314118978912556</v>
+        <v>0.5047395517766694</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>5.3498030130874397E-2</v>
+        <v>2.1899668143330553E-2</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>5.3498030130874397E-2</v>
+        <v>2.1899668143330553E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3422,11 +3430,11 @@
       </c>
       <c r="D23">
         <f>[2]excluding_NM!G23</f>
-        <v>0.40547083484378199</v>
+        <v>0.43254988543435874</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-6.2523923483782051E-2</v>
+        <v>-8.9602974074358799E-2</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
@@ -3446,15 +3454,15 @@
       </c>
       <c r="D24">
         <f>[2]excluding_NM!G24</f>
-        <v>0.30859921761623116</v>
+        <v>0.32920877349035937</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>0.10563420338376878</v>
+        <v>8.5024647509640561E-2</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>0.10563420338376878</v>
+        <v>8.5024647509640561E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3470,15 +3478,15 @@
       </c>
       <c r="D25">
         <f>[2]excluding_NM!G25</f>
-        <v>0.27223980437470191</v>
+        <v>0.29042112545115256</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>7.5940762625298031E-2</v>
+        <v>5.7759441548847379E-2</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>7.5940762625298031E-2</v>
+        <v>5.7759441548847379E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3494,15 +3502,15 @@
       </c>
       <c r="D26">
         <f>[2]excluding_NM!G26</f>
-        <v>0.21497038753171988</v>
+        <v>0.23356785759432633</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>0.1269404006282801</v>
+        <v>0.10834293056567365</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>0.1269404006282801</v>
+        <v>0.10834293056567365</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3518,15 +3526,15 @@
       </c>
       <c r="D27">
         <f>[2]excluding_NM!G27</f>
-        <v>0.19854487157533537</v>
+        <v>0.21572134107703131</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>0.11460856386466459</v>
+        <v>9.7432094362968652E-2</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>0.11460856386466459</v>
+        <v>9.7432094362968652E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3542,15 +3550,15 @@
       </c>
       <c r="D28">
         <f>[2]excluding_NM!G28</f>
-        <v>0.26601896820539661</v>
+        <v>0.28903274165619491</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>0.20533197767460332</v>
+        <v>0.18231820422380501</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>0.20533197767460332</v>
+        <v>0.18231820422380501</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3566,15 +3574,15 @@
       </c>
       <c r="D29">
         <f>[2]excluding_NM!G29</f>
-        <v>0.30518264767328962</v>
+        <v>0.33158454059862796</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>0.46090957768671026</v>
+        <v>0.43450768476137192</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>0.46090957768671026</v>
+        <v>0.43450768476137192</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3590,15 +3598,15 @@
       </c>
       <c r="D30">
         <f>[2]excluding_NM!G30</f>
-        <v>0.39469662162060148</v>
+        <v>0.42884252742968859</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>0.61095592193939841</v>
+        <v>0.57681001613031135</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>0.61095592193939841</v>
+        <v>0.57681001613031135</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3614,15 +3622,15 @@
       </c>
       <c r="D31">
         <f>[2]excluding_NM!G31</f>
-        <v>0.43474456300283082</v>
+        <v>0.47235508735532133</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>0.86213384203716892</v>
+        <v>0.82452331768467846</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>0.86213384203716892</v>
+        <v>0.82452331768467846</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3638,15 +3646,15 @@
       </c>
       <c r="D32">
         <f>[2]excluding_NM!G32</f>
-        <v>0.4710694810076359</v>
+        <v>0.51182253853819637</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>0.32306467867236399</v>
+        <v>0.28231162114180353</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>0.32306467867236399</v>
+        <v>0.28231162114180353</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3662,15 +3670,15 @@
       </c>
       <c r="D33">
         <f>[2]excluding_NM!G33</f>
-        <v>0.45593526816425073</v>
+        <v>0.49537903805985989</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>2.0571624115749199E-2</v>
+        <v>-1.8872145779859961E-2</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>2.0571624115749199E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3686,15 +3694,15 @@
       </c>
       <c r="D34">
         <f>[2]excluding_NM!G34</f>
-        <v>0.38246433180561412</v>
+        <v>0.41555200049542446</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>0.26779672067438576</v>
+        <v>0.23470905198457542</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>0.26779672067438576</v>
+        <v>0.23470905198457542</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3710,15 +3718,15 @@
       </c>
       <c r="D35">
         <f>[2]excluding_NM!G35</f>
-        <v>0.32776290727152374</v>
+        <v>0.35611825856248042</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>0.10218628240847621</v>
+        <v>7.3830931117519538E-2</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>0.10218628240847621</v>
+        <v>7.3830931117519538E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3734,15 +3742,15 @@
       </c>
       <c r="D36">
         <f>[2]excluding_NM!G36</f>
-        <v>0.24945660219084109</v>
+        <v>0.27103753593911906</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>0.26076623240915886</v>
+        <v>0.2391852986608809</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>0.26076623240915886</v>
+        <v>0.2391852986608809</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3758,15 +3766,15 @@
       </c>
       <c r="D37">
         <f>[2]excluding_NM!G37</f>
-        <v>0.22006542046670602</v>
+        <v>0.23910367087847761</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>0.13348571845329399</v>
+        <v>0.11444746804152239</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>0.13348571845329399</v>
+        <v>0.11444746804152239</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3782,15 +3790,15 @@
       </c>
       <c r="D38">
         <f>[2]excluding_NM!G38</f>
-        <v>0.23408543990994765</v>
+        <v>0.25405999916732858</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>0.11042799105005233</v>
+        <v>9.0453431792671402E-2</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>0.11042799105005233</v>
+        <v>9.0453431792671402E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3806,15 +3814,15 @@
       </c>
       <c r="D39">
         <f>[2]excluding_NM!G39</f>
-        <v>0.21619937582202398</v>
+        <v>0.23464771351200212</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>0.11456445357797601</v>
+        <v>9.6116115887997872E-2</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>0.11456445357797601</v>
+        <v>9.6116115887997872E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3830,15 +3838,15 @@
       </c>
       <c r="D40">
         <f>[2]excluding_NM!G40</f>
-        <v>0.28967323319153548</v>
+        <v>0.31439111040716827</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>0.35103945060846453</v>
+        <v>0.32632157339283174</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>0.35103945060846453</v>
+        <v>0.32632157339283174</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -3854,15 +3862,15 @@
       </c>
       <c r="D41">
         <f>[2]excluding_NM!G41</f>
-        <v>0.33231932618134874</v>
+        <v>0.36067620337856299</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>0.54462698025865119</v>
+        <v>0.51627010306143695</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>0.54462698025865119</v>
+        <v>0.51627010306143695</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -3878,15 +3886,15 @@
       </c>
       <c r="D42">
         <f>[2]excluding_NM!G42</f>
-        <v>0.42979283502196647</v>
+        <v>0.46646714699475134</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>2.3617783961380332</v>
+        <v>2.3251040841652486</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>2.3617783961380332</v>
+        <v>2.3251040841652486</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3902,15 +3910,15 @@
       </c>
       <c r="D43">
         <f>[2]excluding_NM!G43</f>
-        <v>0.47340181802463077</v>
+        <v>0.51379729358399306</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>3.1157980216553689</v>
+        <v>3.0754025460960066</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>3.1157980216553689</v>
+        <v>3.0754025460960066</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3926,15 +3934,15 @@
       </c>
       <c r="D44">
         <f>[2]excluding_NM!G44</f>
-        <v>0.51295672839382234</v>
+        <v>0.55672743267904545</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>0.93069839576617741</v>
+        <v>0.88692769148095429</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>0.93069839576617741</v>
+        <v>0.88692769148095429</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3950,15 +3958,15 @@
       </c>
       <c r="D45">
         <f>[2]excluding_NM!G45</f>
-        <v>0.49647678940403078</v>
+        <v>0.53884125706882902</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>0.23501508847596914</v>
+        <v>0.1926506208111709</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>0.23501508847596914</v>
+        <v>0.1926506208111709</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3974,15 +3982,15 @@
       </c>
       <c r="D46">
         <f>[2]excluding_NM!G46</f>
-        <v>0.4164728565108573</v>
+        <v>0.45201057194786654</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>0.41269583560914258</v>
+        <v>0.37715812017213335</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>0.41269583560914258</v>
+        <v>0.37715812017213335</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3998,15 +4006,15 @@
       </c>
       <c r="D47">
         <f>[2]excluding_NM!G47</f>
-        <v>0.35690741043808627</v>
+        <v>0.38736239397715849</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>0.11054203820191366</v>
+        <v>8.0087054662841439E-2</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>0.11054203820191366</v>
+        <v>8.0087054662841439E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4022,15 +4030,15 @@
       </c>
       <c r="D48">
         <f>[2]excluding_NM!G48</f>
-        <v>0.27163815041114681</v>
+        <v>0.29481709026336544</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>0.24144512430885312</v>
+        <v>0.21826618445663448</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>0.24144512430885312</v>
+        <v>0.21826618445663448</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -4046,15 +4054,15 @@
       </c>
       <c r="D49">
         <f>[2]excluding_NM!G49</f>
-        <v>0.23963352046018585</v>
+        <v>0.26008149858444757</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>0.1765537328598141</v>
+        <v>0.15610575473555238</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>0.1765537328598141</v>
+        <v>0.15610575473555238</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -4070,15 +4078,15 @@
       </c>
       <c r="D50">
         <f>[2]excluding_NM!G50</f>
-        <v>0.21588135358424795</v>
+        <v>0.23535622768027362</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>0.13889709793575203</v>
+        <v>0.11942222383972637</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>0.13889709793575203</v>
+        <v>0.11942222383972637</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -4094,15 +4102,15 @@
       </c>
       <c r="D51">
         <f>[2]excluding_NM!G51</f>
-        <v>0.19938623228545641</v>
+        <v>0.21737306489406716</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>0.19198710387454351</v>
+        <v>0.17400027126593276</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>0.19198710387454351</v>
+        <v>0.17400027126593276</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4118,15 +4126,15 @@
       </c>
       <c r="D52">
         <f>[2]excluding_NM!G52</f>
-        <v>0.26714625951349785</v>
+        <v>0.29124579234887649</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>0.66783158048650204</v>
+        <v>0.64373204765112346</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>0.66783158048650204</v>
+        <v>0.64373204765112346</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -4142,15 +4150,15 @@
       </c>
       <c r="D53">
         <f>[2]excluding_NM!G53</f>
-        <v>0.30647590036284889</v>
+        <v>0.33412339966715232</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>1.081699760357151</v>
+        <v>1.0540522610528473</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>1.081699760357151</v>
+        <v>1.0540522610528473</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -4166,15 +4174,15 @@
       </c>
       <c r="D54">
         <f>[2]excluding_NM!G54</f>
-        <v>0.39636920186512864</v>
+        <v>0.43212606633583939</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>2.111060043454871</v>
+        <v>2.0753031789841603</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>2.111060043454871</v>
+        <v>2.0753031789841603</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -4190,15 +4198,15 @@
       </c>
       <c r="D55">
         <f>[2]excluding_NM!G55</f>
-        <v>0.43658685180811246</v>
+        <v>0.47597179094147346</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>1.7571647290718875</v>
+        <v>1.7177797899385263</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>1.7571647290718875</v>
+        <v>1.7177797899385263</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -4214,15 +4222,15 @@
       </c>
       <c r="D56">
         <f>[2]excluding_NM!G56</f>
-        <v>0.47306570155925326</v>
+        <v>0.51574143442850806</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>0.80380195744074667</v>
+        <v>0.76112622457149182</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>0.80380195744074667</v>
+        <v>0.76112622457149182</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -4238,15 +4246,15 @@
       </c>
       <c r="D57">
         <f>[2]excluding_NM!G57</f>
-        <v>0.45786735544481449</v>
+        <v>0.49917203022066609</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>0.13701044503518545</v>
+        <v>9.5705770259333856E-2</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>0.13701044503518545</v>
+        <v>9.5705770259333856E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -4262,15 +4270,15 @@
       </c>
       <c r="D58">
         <f>[2]excluding_NM!G58</f>
-        <v>0.38408507606987391</v>
+        <v>0.41873377719405014</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>0.19654109649012602</v>
+        <v>0.16189239536594979</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>0.19654109649012602</v>
+        <v>0.16189239536594979</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -4286,15 +4294,15 @@
       </c>
       <c r="D59">
         <f>[2]excluding_NM!G59</f>
-        <v>0.32915184686097404</v>
+        <v>0.35884496611219358</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>0.44278337325902589</v>
+        <v>0.41309025400780636</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>0.44278337325902589</v>
+        <v>0.41309025400780636</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -4310,15 +4318,15 @@
       </c>
       <c r="D60">
         <f>[2]excluding_NM!G60</f>
-        <v>0.25051370823592983</v>
+        <v>0.27311280188724563</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>0.45328901060407017</v>
+        <v>0.43068991695275438</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>0.45328901060407017</v>
+        <v>0.43068991695275438</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -4334,15 +4342,15 @@
       </c>
       <c r="D61">
         <f>[2]excluding_NM!G61</f>
-        <v>0.22099797740946589</v>
+        <v>0.24093442728838543</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>0.29928265311053404</v>
+        <v>0.27934620323161452</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>0.29928265311053404</v>
+        <v>0.27934620323161452</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -4358,15 +4366,15 @@
       </c>
       <c r="D62">
         <f>[2]excluding_NM!G62</f>
-        <v>0.23438959961723466</v>
+        <v>0.25438480393083174</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>0.58891636206276532</v>
+        <v>0.56892115774916818</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>0.58891636206276532</v>
+        <v>0.56892115774916818</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -4382,15 +4390,15 @@
       </c>
       <c r="D63">
         <f>[2]excluding_NM!G63</f>
-        <v>0.216480295211504</v>
+        <v>0.23494770050461644</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>0.47351978242849591</v>
+        <v>0.45505237713538349</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>0.47351978242849591</v>
+        <v>0.45505237713538349</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -4406,15 +4414,15 @@
       </c>
       <c r="D64">
         <f>[2]excluding_NM!G64</f>
-        <v>0.29004962108584587</v>
+        <v>0.31479304589720192</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>0.5914679622341541</v>
+        <v>0.56672453742279805</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>0.5914679622341541</v>
+        <v>0.56672453742279805</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -4430,15 +4438,15 @@
       </c>
       <c r="D65">
         <f>[2]excluding_NM!G65</f>
-        <v>0.33275112642068022</v>
+        <v>0.36113731236590269</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>1.8516580769393194</v>
+        <v>1.8232718909940968</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>1.8516580769393194</v>
+        <v>1.8232718909940968</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -4454,15 +4462,15 @@
       </c>
       <c r="D66">
         <f>[2]excluding_NM!G66</f>
-        <v>0.43035128779435849</v>
+        <v>0.4670635051458108</v>
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>4.6980996095256415</v>
+        <v>4.6613873921741886</v>
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
-        <v>4.6980996095256415</v>
+        <v>4.6613873921741886</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -4478,15 +4486,15 @@
       </c>
       <c r="D67">
         <f>[2]excluding_NM!G67</f>
-        <v>0.47401693427643571</v>
+        <v>0.51445416128838595</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" si="2">C67-D67</f>
-        <v>4.8725897028035643</v>
+        <v>4.8321524757916139</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="3">IF(E67&lt;0, 0.01, E67)</f>
-        <v>4.8725897028035643</v>
+        <f t="shared" ref="F67:F130" si="3">IF(E67&lt;0.01, 0.01, E67)</f>
+        <v>4.8321524757916139</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4502,15 +4510,15 @@
       </c>
       <c r="D68">
         <f>[2]excluding_NM!G68</f>
-        <v>0.51362324045206564</v>
+        <v>0.5574391847167518</v>
       </c>
       <c r="E68">
         <f t="shared" si="2"/>
-        <v>1.8674754502279343</v>
+        <v>1.8236595059632483</v>
       </c>
       <c r="F68">
         <f t="shared" si="3"/>
-        <v>1.8674754502279343</v>
+        <v>1.8236595059632483</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -4526,15 +4534,15 @@
       </c>
       <c r="D69">
         <f>[2]excluding_NM!G69</f>
-        <v>0.4971218881978644</v>
+        <v>0.53953014240159136</v>
       </c>
       <c r="E69">
         <f t="shared" si="2"/>
-        <v>0.55686456916213534</v>
+        <v>0.51445631495840838</v>
       </c>
       <c r="F69">
         <f t="shared" si="3"/>
-        <v>0.55686456916213534</v>
+        <v>0.51445631495840838</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -4550,15 +4558,15 @@
       </c>
       <c r="D70">
         <f>[2]excluding_NM!G70</f>
-        <v>0.41701400192416477</v>
+        <v>0.45258844799054787</v>
       </c>
       <c r="E70">
         <f t="shared" si="2"/>
-        <v>0.18957569115583522</v>
+        <v>0.15400124508945212</v>
       </c>
       <c r="F70">
         <f t="shared" si="3"/>
-        <v>0.18957569115583522</v>
+        <v>0.15400124508945212</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -4574,15 +4582,15 @@
       </c>
       <c r="D71">
         <f>[2]excluding_NM!G71</f>
-        <v>0.3573711592877763</v>
+        <v>0.38785762010948205</v>
       </c>
       <c r="E71">
         <f t="shared" si="2"/>
-        <v>0.55264351247222365</v>
+        <v>0.52215705165051784</v>
       </c>
       <c r="F71">
         <f t="shared" si="3"/>
-        <v>0.55264351247222365</v>
+        <v>0.52215705165051784</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -4598,15 +4606,15 @@
       </c>
       <c r="D72">
         <f>[2]excluding_NM!G72</f>
-        <v>0.27199110435970858</v>
+        <v>0.29519400121193468</v>
       </c>
       <c r="E72">
         <f t="shared" si="2"/>
-        <v>0.35293796936029137</v>
+        <v>0.32973507250806527</v>
       </c>
       <c r="F72">
         <f t="shared" si="3"/>
-        <v>0.35293796936029137</v>
+        <v>0.32973507250806527</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -4622,15 +4630,15 @@
       </c>
       <c r="D73">
         <f>[2]excluding_NM!G73</f>
-        <v>0.23994488908468195</v>
+        <v>0.26041400157553674</v>
       </c>
       <c r="E73">
         <f t="shared" si="2"/>
-        <v>0.22809909691531802</v>
+        <v>0.20762998442446323</v>
       </c>
       <c r="F73">
         <f t="shared" si="3"/>
-        <v>0.22809909691531802</v>
+        <v>0.20762998442446323</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -4646,15 +4654,15 @@
       </c>
       <c r="D74">
         <f>[2]excluding_NM!G74</f>
-        <v>0.2312461249660214</v>
+        <v>0.25109550598539193</v>
       </c>
       <c r="E74">
         <f t="shared" si="2"/>
-        <v>0.25923856267397849</v>
+        <v>0.23938918165460799</v>
       </c>
       <c r="F74">
         <f t="shared" si="3"/>
-        <v>0.25923856267397849</v>
+        <v>0.23938918165460799</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4670,15 +4678,15 @@
       </c>
       <c r="D75">
         <f>[2]excluding_NM!G75</f>
-        <v>0.21357700802813151</v>
+        <v>0.23190973213302393</v>
       </c>
       <c r="E75">
         <f t="shared" si="2"/>
-        <v>0.19141764777186843</v>
+        <v>0.173084923666976</v>
       </c>
       <c r="F75">
         <f t="shared" si="3"/>
-        <v>0.19141764777186843</v>
+        <v>0.173084923666976</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4694,15 +4702,15 @@
       </c>
       <c r="D76">
         <f>[2]excluding_NM!G76</f>
-        <v>0.28615967190309072</v>
+        <v>0.31072264505914737</v>
       </c>
       <c r="E76">
         <f t="shared" si="2"/>
-        <v>0.38183265557690921</v>
+        <v>0.35726968242085255</v>
       </c>
       <c r="F76">
         <f t="shared" si="3"/>
-        <v>0.38183265557690921</v>
+        <v>0.35726968242085255</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4718,15 +4726,15 @@
       </c>
       <c r="D77">
         <f>[2]excluding_NM!G77</f>
-        <v>0.3282884935531204</v>
+        <v>0.35646766150142023</v>
       </c>
       <c r="E77">
         <f t="shared" si="2"/>
-        <v>1.5645655091668793</v>
+        <v>1.5363863412185794</v>
       </c>
       <c r="F77">
         <f t="shared" si="3"/>
-        <v>1.5645655091668793</v>
+        <v>1.5363863412185794</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4742,15 +4750,15 @@
       </c>
       <c r="D78">
         <f>[2]excluding_NM!G78</f>
-        <v>0.42457970762822611</v>
+        <v>0.4610241859564313</v>
       </c>
       <c r="E78">
         <f t="shared" si="2"/>
-        <v>3.560525273731773</v>
+        <v>3.524080795403568</v>
       </c>
       <c r="F78">
         <f t="shared" si="3"/>
-        <v>3.560525273731773</v>
+        <v>3.524080795403568</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4766,15 +4774,15 @@
       </c>
       <c r="D79">
         <f>[2]excluding_NM!G79</f>
-        <v>0.46765974001706107</v>
+        <v>0.50780206183275589</v>
       </c>
       <c r="E79">
         <f t="shared" si="2"/>
-        <v>2.6078043140229386</v>
+        <v>2.5676619922072437</v>
       </c>
       <c r="F79">
         <f t="shared" si="3"/>
-        <v>2.6078043140229386</v>
+        <v>2.5676619922072437</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4790,15 +4798,15 @@
       </c>
       <c r="D80">
         <f>[2]excluding_NM!G80</f>
-        <v>0.50673487322386224</v>
+        <v>0.55023127159983853</v>
       </c>
       <c r="E80">
         <f t="shared" si="2"/>
-        <v>0.90834545325613758</v>
+        <v>0.86484905488016128</v>
       </c>
       <c r="F80">
         <f t="shared" si="3"/>
-        <v>0.90834545325613758</v>
+        <v>0.86484905488016128</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4814,15 +4822,15 @@
       </c>
       <c r="D81">
         <f>[2]excluding_NM!G81</f>
-        <v>0.49045482593629147</v>
+        <v>0.5325538004130701</v>
       </c>
       <c r="E81">
         <f t="shared" si="2"/>
-        <v>0.46778891382370841</v>
+        <v>0.42568993934692978</v>
       </c>
       <c r="F81">
         <f t="shared" si="3"/>
-        <v>0.46778891382370841</v>
+        <v>0.42568993934692978</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4838,15 +4846,15 @@
       </c>
       <c r="D82">
         <f>[2]excluding_NM!G82</f>
-        <v>0.41142129240808428</v>
+        <v>0.44673629711871399</v>
       </c>
       <c r="E82">
         <f t="shared" si="2"/>
-        <v>0.25046407559191558</v>
+        <v>0.21514907088128588</v>
       </c>
       <c r="F82">
         <f t="shared" si="3"/>
-        <v>0.25046407559191558</v>
+        <v>0.21514907088128588</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -4862,15 +4870,15 @@
       </c>
       <c r="D83">
         <f>[2]excluding_NM!G83</f>
-        <v>0.35257833920475917</v>
+        <v>0.38284246490667295</v>
       </c>
       <c r="E83">
         <f t="shared" si="2"/>
-        <v>1.5792388297552407</v>
+        <v>1.548974704053327</v>
       </c>
       <c r="F83">
         <f t="shared" si="3"/>
-        <v>1.5792388297552407</v>
+        <v>1.548974704053327</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -4886,15 +4894,15 @@
       </c>
       <c r="D84">
         <f>[2]excluding_NM!G84</f>
-        <v>0.26834334377943336</v>
+        <v>0.29137702391341425</v>
       </c>
       <c r="E84">
         <f t="shared" si="2"/>
-        <v>0.44424051918056651</v>
+        <v>0.42120683904658562</v>
       </c>
       <c r="F84">
         <f t="shared" si="3"/>
-        <v>0.44424051918056651</v>
+        <v>0.42120683904658562</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -4910,15 +4918,15 @@
       </c>
       <c r="D85">
         <f>[2]excluding_NM!G85</f>
-        <v>0.23672691065151935</v>
+        <v>0.25704674367683356</v>
       </c>
       <c r="E85">
         <f t="shared" si="2"/>
-        <v>0.25933927398848061</v>
+        <v>0.23901944096316641</v>
       </c>
       <c r="F85">
         <f t="shared" si="3"/>
-        <v>0.25933927398848061</v>
+        <v>0.23901944096316641</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -4934,15 +4942,15 @@
       </c>
       <c r="D86">
         <f>[2]excluding_NM!G86</f>
-        <v>0.2445870484698805</v>
+        <v>0.26490440506775398</v>
       </c>
       <c r="E86">
         <f t="shared" si="2"/>
-        <v>0.17041236361011947</v>
+        <v>0.15009500701224598</v>
       </c>
       <c r="F86">
         <f t="shared" si="3"/>
-        <v>0.17041236361011947</v>
+        <v>0.15009500701224598</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4958,15 +4966,15 @@
       </c>
       <c r="D87">
         <f>[2]excluding_NM!G87</f>
-        <v>0.22589857461310703</v>
+        <v>0.24466351709096282</v>
       </c>
       <c r="E87">
         <f t="shared" si="2"/>
-        <v>0.33649799702689298</v>
+        <v>0.31773305454903722</v>
       </c>
       <c r="F87">
         <f t="shared" si="3"/>
-        <v>0.33649799702689298</v>
+        <v>0.31773305454903722</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4982,15 +4990,15 @@
       </c>
       <c r="D88">
         <f>[2]excluding_NM!G88</f>
-        <v>0.3026686373757424</v>
+        <v>0.3278107153190587</v>
       </c>
       <c r="E88">
         <f t="shared" si="2"/>
-        <v>0.94489153682425764</v>
+        <v>0.91974945888094128</v>
       </c>
       <c r="F88">
         <f t="shared" si="3"/>
-        <v>0.94489153682425764</v>
+        <v>0.91974945888094128</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -5006,15 +5014,15 @@
       </c>
       <c r="D89">
         <f>[2]excluding_NM!G89</f>
-        <v>0.34722793169649613</v>
+        <v>0.37607146103770139</v>
       </c>
       <c r="E89">
         <f t="shared" si="2"/>
-        <v>1.1201852507435037</v>
+        <v>1.0913417214022985</v>
       </c>
       <c r="F89">
         <f t="shared" si="3"/>
-        <v>1.1201852507435037</v>
+        <v>1.0913417214022985</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -5030,15 +5038,15 @@
       </c>
       <c r="D90">
         <f>[2]excluding_NM!G90</f>
-        <v>0.44907432522059143</v>
+        <v>0.48637803063563817</v>
       </c>
       <c r="E90">
         <f t="shared" si="2"/>
-        <v>2.689173860819408</v>
+        <v>2.6518701554043611</v>
       </c>
       <c r="F90">
         <f t="shared" si="3"/>
-        <v>2.689173860819408</v>
+        <v>2.6518701554043611</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -5054,15 +5062,15 @@
       </c>
       <c r="D91">
         <f>[2]excluding_NM!G91</f>
-        <v>0.4946397070038332</v>
+        <v>0.53572843748868604</v>
       </c>
       <c r="E91">
         <f t="shared" si="2"/>
-        <v>2.1243269673161667</v>
+        <v>2.0832382368313138</v>
       </c>
       <c r="F91">
         <f t="shared" si="3"/>
-        <v>2.1243269673161667</v>
+        <v>2.0832382368313138</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -5078,15 +5086,15 @@
       </c>
       <c r="D92">
         <f>[2]excluding_NM!G92</f>
-        <v>0.53596914117715488</v>
+        <v>0.58049102504171801</v>
       </c>
       <c r="E92">
         <f t="shared" si="2"/>
-        <v>0.76100300834284507</v>
+        <v>0.71648112447828194</v>
       </c>
       <c r="F92">
         <f t="shared" si="3"/>
-        <v>0.76100300834284507</v>
+        <v>0.71648112447828194</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -5102,15 +5110,15 @@
       </c>
       <c r="D93">
         <f>[2]excluding_NM!G93</f>
-        <v>0.51874987440845943</v>
+        <v>0.56184138824532825</v>
       </c>
       <c r="E93">
         <f t="shared" si="2"/>
-        <v>0.48761808755154046</v>
+        <v>0.44452657371467164</v>
       </c>
       <c r="F93">
         <f t="shared" si="3"/>
-        <v>0.48761808755154046</v>
+        <v>0.44452657371467164</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -5126,15 +5134,15 @@
       </c>
       <c r="D94">
         <f>[2]excluding_NM!G94</f>
-        <v>0.4351567819895058</v>
+        <v>0.47130438494303106</v>
       </c>
       <c r="E94">
         <f t="shared" si="2"/>
-        <v>0.15622410269049403</v>
+        <v>0.12007649973696877</v>
       </c>
       <c r="F94">
         <f t="shared" si="3"/>
-        <v>0.15622410269049403</v>
+        <v>0.12007649973696877</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -5150,15 +5158,15 @@
       </c>
       <c r="D95">
         <f>[2]excluding_NM!G95</f>
-        <v>0.37291909368503223</v>
+        <v>0.40389673643412333</v>
       </c>
       <c r="E95">
         <f t="shared" si="2"/>
-        <v>0.33131534315496775</v>
+        <v>0.30033770040587665</v>
       </c>
       <c r="F95">
         <f t="shared" si="3"/>
-        <v>0.33131534315496775</v>
+        <v>0.30033770040587665</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -5174,15 +5182,15 @@
       </c>
       <c r="D96">
         <f>[2]excluding_NM!G96</f>
-        <v>0.28382445950691726</v>
+        <v>0.30740118930956201</v>
       </c>
       <c r="E96">
         <f t="shared" si="2"/>
-        <v>0.2254337937330827</v>
+        <v>0.20185706393043795</v>
       </c>
       <c r="F96">
         <f t="shared" si="3"/>
-        <v>0.2254337937330827</v>
+        <v>0.20185706393043795</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -5198,15 +5206,15 @@
       </c>
       <c r="D97">
         <f>[2]excluding_NM!G97</f>
-        <v>0.25038402861088349</v>
+        <v>0.27118292874694661</v>
       </c>
       <c r="E97">
         <f t="shared" si="2"/>
-        <v>0.25687845398911646</v>
+        <v>0.23607955385305335</v>
       </c>
       <c r="F97">
         <f t="shared" si="3"/>
-        <v>0.25687845398911646</v>
+        <v>0.23607955385305335</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -5222,15 +5230,15 @@
       </c>
       <c r="D98">
         <f>[2]excluding_NM!G98</f>
-        <v>0.24093323925877094</v>
+        <v>0.2607856279159057</v>
       </c>
       <c r="E98">
         <f t="shared" si="2"/>
-        <v>0.215910748341229</v>
+        <v>0.19605835968409424</v>
       </c>
       <c r="F98">
         <f t="shared" si="3"/>
-        <v>0.215910748341229</v>
+        <v>0.19605835968409424</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -5246,15 +5254,15 @@
       </c>
       <c r="D99">
         <f>[2]excluding_NM!G99</f>
-        <v>0.22252394665197223</v>
+        <v>0.24085944858622294</v>
       </c>
       <c r="E99">
         <f t="shared" si="2"/>
-        <v>0.36701535238802768</v>
+        <v>0.34867985045377697</v>
       </c>
       <c r="F99">
         <f t="shared" si="3"/>
-        <v>0.36701535238802768</v>
+        <v>0.34867985045377697</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -5270,15 +5278,15 @@
       </c>
       <c r="D100">
         <f>[2]excluding_NM!G100</f>
-        <v>0.29814716552318171</v>
+        <v>0.32271386053462492</v>
       </c>
       <c r="E100">
         <f t="shared" si="2"/>
-        <v>0.61860724095681818</v>
+        <v>0.59404054594537492</v>
       </c>
       <c r="F100">
         <f t="shared" si="3"/>
-        <v>0.61860724095681818</v>
+        <v>0.59404054594537492</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -5294,15 +5302,15 @@
       </c>
       <c r="D101">
         <f>[2]excluding_NM!G101</f>
-        <v>0.34204080252050706</v>
+        <v>0.37022424026087769</v>
       </c>
       <c r="E101">
         <f t="shared" si="2"/>
-        <v>1.3429533179994928</v>
+        <v>1.3147698802591221</v>
       </c>
       <c r="F101">
         <f t="shared" si="3"/>
-        <v>1.3429533179994928</v>
+        <v>1.3147698802591221</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -5318,15 +5326,15 @@
       </c>
       <c r="D102">
         <f>[2]excluding_NM!G102</f>
-        <v>0.44236574471222545</v>
+        <v>0.47881574521712783</v>
       </c>
       <c r="E102">
         <f t="shared" si="2"/>
-        <v>3.978401905687774</v>
+        <v>3.9419519051828713</v>
       </c>
       <c r="F102">
         <f t="shared" si="3"/>
-        <v>3.978401905687774</v>
+        <v>3.9419519051828713</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -5342,15 +5350,15 @@
       </c>
       <c r="D103">
         <f>[2]excluding_NM!G103</f>
-        <v>0.48725043954696012</v>
+        <v>0.52739884384769153</v>
       </c>
       <c r="E103">
         <f t="shared" si="2"/>
-        <v>5.4377312690930397</v>
+        <v>5.3975828647923088</v>
       </c>
       <c r="F103">
         <f t="shared" si="3"/>
-        <v>5.4377312690930397</v>
+        <v>5.3975828647923088</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -5366,15 +5374,15 @@
       </c>
       <c r="D104">
         <f>[2]excluding_NM!G104</f>
-        <v>0.5279624662646657</v>
+        <v>0.57146545534542204</v>
       </c>
       <c r="E104">
         <f t="shared" si="2"/>
-        <v>2.2106530015353338</v>
+        <v>2.1671500124545773</v>
       </c>
       <c r="F104">
         <f t="shared" si="3"/>
-        <v>2.2106530015353338</v>
+        <v>2.1671500124545773</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -5390,15 +5398,15 @@
       </c>
       <c r="D105">
         <f>[2]excluding_NM!G105</f>
-        <v>0.51100043272202056</v>
+        <v>0.55310578616171735</v>
       </c>
       <c r="E105">
         <f t="shared" si="2"/>
-        <v>0.55931853331797932</v>
+        <v>0.51721317987828253</v>
       </c>
       <c r="F105">
         <f t="shared" si="3"/>
-        <v>0.55931853331797932</v>
+        <v>0.51721317987828253</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -5414,15 +5422,15 @@
       </c>
       <c r="D106">
         <f>[2]excluding_NM!G106</f>
-        <v>0.42865611129472919</v>
+        <v>0.4639764670408249</v>
       </c>
       <c r="E106">
         <f t="shared" si="2"/>
-        <v>0.16638327506527079</v>
+        <v>0.13106291931917508</v>
       </c>
       <c r="F106">
         <f t="shared" si="3"/>
-        <v>0.16638327506527079</v>
+        <v>0.13106291931917508</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -5438,15 +5446,15 @@
       </c>
       <c r="D107">
         <f>[2]excluding_NM!G107</f>
-        <v>0.36734817229721067</v>
+        <v>0.39761688371024934</v>
       </c>
       <c r="E107">
         <f t="shared" si="2"/>
-        <v>0.17020857910278925</v>
+        <v>0.13993986768975059</v>
       </c>
       <c r="F107">
         <f t="shared" si="3"/>
-        <v>0.17020857910278925</v>
+        <v>0.13993986768975059</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -5462,15 +5470,15 @@
       </c>
       <c r="D108">
         <f>[2]excluding_NM!G108</f>
-        <v>0.2795844949177364</v>
+        <v>0.30262166518403688</v>
       </c>
       <c r="E108">
         <f t="shared" si="2"/>
-        <v>0.25148661864226352</v>
+        <v>0.22844944837596304</v>
       </c>
       <c r="F108">
         <f t="shared" si="3"/>
-        <v>0.25148661864226352</v>
+        <v>0.22844944837596304</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -5486,15 +5494,15 @@
       </c>
       <c r="D109">
         <f>[2]excluding_NM!G109</f>
-        <v>0.24664362013146301</v>
+        <v>0.2669665320788408</v>
       </c>
       <c r="E109">
         <f t="shared" si="2"/>
-        <v>0.16690768642853698</v>
+        <v>0.1465847744811592</v>
       </c>
       <c r="F109">
         <f t="shared" si="3"/>
-        <v>0.16690768642853698</v>
+        <v>0.1465847744811592</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -5510,15 +5518,15 @@
       </c>
       <c r="D110">
         <f>[2]excluding_NM!G110</f>
-        <v>0.23736807236103155</v>
+        <v>0.25899129323838771</v>
       </c>
       <c r="E110">
         <f t="shared" si="2"/>
-        <v>0.2383962649589684</v>
+        <v>0.21677304408161224</v>
       </c>
       <c r="F110">
         <f t="shared" si="3"/>
-        <v>0.2383962649589684</v>
+        <v>0.21677304408161224</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -5534,15 +5542,15 @@
       </c>
       <c r="D111">
         <f>[2]excluding_NM!G111</f>
-        <v>0.21923118799816996</v>
+        <v>0.23920221592175453</v>
       </c>
       <c r="E111">
         <f t="shared" si="2"/>
-        <v>0.25744715800182993</v>
+        <v>0.23747613007824539</v>
       </c>
       <c r="F111">
         <f t="shared" si="3"/>
-        <v>0.25744715800182993</v>
+        <v>0.23747613007824539</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -5558,15 +5566,15 @@
       </c>
       <c r="D112">
         <f>[2]excluding_NM!G112</f>
-        <v>0.29373538569384722</v>
+        <v>0.3204934288509444</v>
       </c>
       <c r="E112">
         <f t="shared" si="2"/>
-        <v>0.40217799506615276</v>
+        <v>0.37541995190905558</v>
       </c>
       <c r="F112">
         <f t="shared" si="3"/>
-        <v>0.40217799506615276</v>
+        <v>0.37541995190905558</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -5582,15 +5590,15 @@
       </c>
       <c r="D113">
         <f>[2]excluding_NM!G113</f>
-        <v>0.33697951437872187</v>
+        <v>0.36767691356167753</v>
       </c>
       <c r="E113">
         <f t="shared" si="2"/>
-        <v>1.1776956877412776</v>
+        <v>1.1469982885583221</v>
       </c>
       <c r="F113">
         <f t="shared" si="3"/>
-        <v>1.1776956877412776</v>
+        <v>1.1469982885583221</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -5606,15 +5614,15 @@
       </c>
       <c r="D114">
         <f>[2]excluding_NM!G114</f>
-        <v>0.4358199160229429</v>
+        <v>0.47552125501592019</v>
       </c>
       <c r="E114">
         <f t="shared" si="2"/>
-        <v>4.6913592634170556</v>
+        <v>4.6516579244240788</v>
       </c>
       <c r="F114">
         <f t="shared" si="3"/>
-        <v>4.6913592634170556</v>
+        <v>4.6516579244240788</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -5630,15 +5638,15 @@
       </c>
       <c r="D115">
         <f>[2]excluding_NM!G115</f>
-        <v>0.48004043754256231</v>
+        <v>0.52377007779197937</v>
       </c>
       <c r="E115">
         <f t="shared" si="2"/>
-        <v>3.7946770134574366</v>
+        <v>3.7509473732080196</v>
       </c>
       <c r="F115">
         <f t="shared" si="3"/>
-        <v>3.7946770134574366</v>
+        <v>3.7509473732080196</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -5654,15 +5662,15 @@
       </c>
       <c r="D116">
         <f>[2]excluding_NM!G116</f>
-        <v>0.52015003526192649</v>
+        <v>0.56753348911045542</v>
       </c>
       <c r="E116">
         <f t="shared" si="2"/>
-        <v>1.7670499904180734</v>
+        <v>1.7196665365695445</v>
       </c>
       <c r="F116">
         <f t="shared" si="3"/>
-        <v>1.7670499904180734</v>
+        <v>1.7196665365695445</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -5678,15 +5686,15 @@
       </c>
       <c r="D117">
         <f>[2]excluding_NM!G117</f>
-        <v>0.50343899440377182</v>
+        <v>0.54930014357175883</v>
       </c>
       <c r="E117">
         <f t="shared" si="2"/>
-        <v>0.28450556263622817</v>
+        <v>0.23864441346824117</v>
       </c>
       <c r="F117">
         <f t="shared" si="3"/>
-        <v>0.28450556263622817</v>
+        <v>0.23864441346824117</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -5702,15 +5710,15 @@
       </c>
       <c r="D118">
         <f>[2]excluding_NM!G118</f>
-        <v>0.42231314847563767</v>
+        <v>0.46078407844557562</v>
       </c>
       <c r="E118">
         <f t="shared" si="2"/>
-        <v>8.7824576004362276E-2</v>
+        <v>4.9353646034424326E-2</v>
       </c>
       <c r="F118">
         <f t="shared" si="3"/>
-        <v>8.7824576004362276E-2</v>
+        <v>4.9353646034424326E-2</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -5726,15 +5734,15 @@
       </c>
       <c r="D119">
         <f>[2]excluding_NM!G119</f>
-        <v>0.36191240283738763</v>
+        <v>0.39488108201554084</v>
       </c>
       <c r="E119">
         <f t="shared" si="2"/>
-        <v>9.8562949882612327E-2</v>
+        <v>6.5594270704459112E-2</v>
       </c>
       <c r="F119">
         <f t="shared" si="3"/>
-        <v>9.8562949882612327E-2</v>
+        <v>6.5594270704459112E-2</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -5750,15 +5758,15 @@
       </c>
       <c r="D120">
         <f>[2]excluding_NM!G120</f>
-        <v>0.27544739291608467</v>
+        <v>0.30053947778610607</v>
       </c>
       <c r="E120">
         <f t="shared" si="2"/>
-        <v>0.21682830768391531</v>
+        <v>0.19173622281389391</v>
       </c>
       <c r="F120">
         <f t="shared" si="3"/>
-        <v>0.21682830768391531</v>
+        <v>0.19173622281389391</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -5774,15 +5782,15 @@
       </c>
       <c r="D121">
         <f>[2]excluding_NM!G121</f>
-        <v>0.24299395488503814</v>
+        <v>0.26512966971002855</v>
       </c>
       <c r="E121">
         <f t="shared" si="2"/>
-        <v>7.4442123114961817E-2</v>
+        <v>5.2306408289971407E-2</v>
       </c>
       <c r="F121">
         <f t="shared" si="3"/>
-        <v>7.4442123114961817E-2</v>
+        <v>5.2306408289971407E-2</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -5798,15 +5806,15 @@
       </c>
       <c r="D122">
         <f>[2]excluding_NM!G122</f>
-        <v>0.23596913510005812</v>
+        <v>0.25547571168171013</v>
       </c>
       <c r="E122">
         <f t="shared" si="2"/>
-        <v>0.21923062365994178</v>
+        <v>0.19972404707828978</v>
       </c>
       <c r="F122">
         <f t="shared" si="3"/>
-        <v>0.21923062365994178</v>
+        <v>0.19972404707828978</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -5822,15 +5830,15 @@
       </c>
       <c r="D123">
         <f>[2]excluding_NM!G123</f>
-        <v>0.21793914111668522</v>
+        <v>0.23595525387876073</v>
       </c>
       <c r="E123">
         <f t="shared" si="2"/>
-        <v>0.23505022148331473</v>
+        <v>0.21703410872123921</v>
       </c>
       <c r="F123">
         <f t="shared" si="3"/>
-        <v>0.23505022148331473</v>
+        <v>0.21703410872123921</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -5846,15 +5854,15 @@
       </c>
       <c r="D124">
         <f>[2]excluding_NM!G124</f>
-        <v>0.29200424564697297</v>
+        <v>0.31614300929275624</v>
       </c>
       <c r="E124">
         <f t="shared" si="2"/>
-        <v>0.47795863995302695</v>
+        <v>0.45381987630724369</v>
       </c>
       <c r="F124">
         <f t="shared" si="3"/>
-        <v>0.47795863995302695</v>
+        <v>0.45381987630724369</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -5870,15 +5878,15 @@
       </c>
       <c r="D125">
         <f>[2]excluding_NM!G125</f>
-        <v>0.33499351350606815</v>
+        <v>0.36268601923480226</v>
       </c>
       <c r="E125">
         <f t="shared" si="2"/>
-        <v>1.3007539180139316</v>
+        <v>1.2730614122851975</v>
       </c>
       <c r="F125">
         <f t="shared" si="3"/>
-        <v>1.3007539180139316</v>
+        <v>1.2730614122851975</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -5894,15 +5902,15 @@
       </c>
       <c r="D126">
         <f>[2]excluding_NM!G126</f>
-        <v>0.43325139569274662</v>
+        <v>0.46906646754782033</v>
       </c>
       <c r="E126">
         <f t="shared" si="2"/>
-        <v>2.2445609089872525</v>
+        <v>2.2087458371321791</v>
       </c>
       <c r="F126">
         <f t="shared" si="3"/>
-        <v>2.2445609089872525</v>
+        <v>2.2087458371321791</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -5918,15 +5926,15 @@
       </c>
       <c r="D127">
         <f>[2]excluding_NM!G127</f>
-        <v>0.47721130198034206</v>
+        <v>0.51666035451749781</v>
       </c>
       <c r="E127">
         <f t="shared" si="2"/>
-        <v>4.1482424865796572</v>
+        <v>4.108793434042501</v>
       </c>
       <c r="F127">
         <f t="shared" si="3"/>
-        <v>4.1482424865796572</v>
+        <v>4.108793434042501</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -5942,15 +5950,15 @@
       </c>
       <c r="D128">
         <f>[2]excluding_NM!G128</f>
-        <v>0.51708451234476771</v>
+        <v>0.55982971558909189</v>
       </c>
       <c r="E128">
         <f t="shared" si="2"/>
-        <v>1.0253698928552319</v>
+        <v>0.98262468961090788</v>
       </c>
       <c r="F128">
         <f t="shared" si="3"/>
-        <v>1.0253698928552319</v>
+        <v>0.98262468961090788</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -5966,15 +5974,15 @@
       </c>
       <c r="D129">
         <f>[2]excluding_NM!G129</f>
-        <v>0.50047195860618898</v>
+        <v>0.54184387185823946</v>
       </c>
       <c r="E129">
         <f t="shared" si="2"/>
-        <v>0.67544029631381086</v>
+        <v>0.63406838306176039</v>
       </c>
       <c r="F129">
         <f t="shared" si="3"/>
-        <v>0.67544029631381086</v>
+        <v>0.63406838306176039</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -5990,15 +5998,15 @@
       </c>
       <c r="D130">
         <f>[2]excluding_NM!G130</f>
-        <v>0.41982423076515896</v>
+        <v>0.45452933533225071</v>
       </c>
       <c r="E130">
         <f t="shared" si="2"/>
-        <v>0.15850766899484092</v>
+        <v>0.12380256442774917</v>
       </c>
       <c r="F130">
         <f t="shared" si="3"/>
-        <v>0.15850766899484092</v>
+        <v>0.12380256442774917</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -6014,15 +6022,15 @@
       </c>
       <c r="D131">
         <f>[2]excluding_NM!G131</f>
-        <v>0.35977945909098691</v>
+        <v>0.38952091476182199</v>
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E194" si="4">C131-D131</f>
-        <v>0.32464898938901293</v>
+        <v>0.29490753371817785</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="5">IF(E131&lt;0, 0.01, E131)</f>
-        <v>0.32464898938901293</v>
+        <f t="shared" ref="F131:F194" si="5">IF(E131&lt;0.01, 0.01, E131)</f>
+        <v>0.29490753371817785</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -6038,15 +6046,15 @@
       </c>
       <c r="D132">
         <f>[2]excluding_NM!G132</f>
-        <v>0.27382403381157028</v>
+        <v>0.29645991575934011</v>
       </c>
       <c r="E132">
         <f t="shared" si="4"/>
-        <v>0.22090875894842971</v>
+        <v>0.19827287700065988</v>
       </c>
       <c r="F132">
         <f t="shared" si="5"/>
-        <v>0.22090875894842971</v>
+        <v>0.19827287700065988</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -6062,15 +6070,15 @@
       </c>
       <c r="D133">
         <f>[2]excluding_NM!G133</f>
-        <v>0.2415618612833218</v>
+        <v>0.26153076503139661</v>
       </c>
       <c r="E133">
         <f t="shared" si="4"/>
-        <v>0.33686378295667807</v>
+        <v>0.31689487920860326</v>
       </c>
       <c r="F133">
         <f t="shared" si="5"/>
-        <v>0.33686378295667807</v>
+        <v>0.31689487920860326</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -6086,15 +6094,15 @@
       </c>
       <c r="D134">
         <f>[2]excluding_NM!G134</f>
-        <v>0.23517463889072451</v>
+        <v>0.25534185599746639</v>
       </c>
       <c r="E134">
         <f t="shared" si="4"/>
-        <v>0.14721402894927541</v>
+        <v>0.12704681184253352</v>
       </c>
       <c r="F134">
         <f t="shared" si="5"/>
-        <v>0.14721402894927541</v>
+        <v>0.12704681184253352</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -6110,15 +6118,15 @@
       </c>
       <c r="D135">
         <f>[2]excluding_NM!G135</f>
-        <v>0.21720535099023836</v>
+        <v>0.23583162587611836</v>
       </c>
       <c r="E135">
         <f t="shared" si="4"/>
-        <v>0.17339335972976161</v>
+        <v>0.1547670848438816</v>
       </c>
       <c r="F135">
         <f t="shared" si="5"/>
-        <v>0.17339335972976161</v>
+        <v>0.1547670848438816</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -6134,15 +6142,15 @@
       </c>
       <c r="D136">
         <f>[2]excluding_NM!G136</f>
-        <v>0.29102108203882793</v>
+        <v>0.31597736717143987</v>
       </c>
       <c r="E136">
         <f t="shared" si="4"/>
-        <v>0.49869968620117189</v>
+        <v>0.47374340106855994</v>
       </c>
       <c r="F136">
         <f t="shared" si="5"/>
-        <v>0.49869968620117189</v>
+        <v>0.47374340106855994</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -6158,15 +6166,15 @@
       </c>
       <c r="D137">
         <f>[2]excluding_NM!G137</f>
-        <v>0.33386560719527436</v>
+        <v>0.36249599105188524</v>
       </c>
       <c r="E137">
         <f t="shared" si="4"/>
-        <v>1.2070284458047253</v>
+        <v>1.1783980619481145</v>
       </c>
       <c r="F137">
         <f t="shared" si="5"/>
-        <v>1.2070284458047253</v>
+        <v>1.1783980619481145</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -6182,15 +6190,15 @@
       </c>
       <c r="D138">
         <f>[2]excluding_NM!G138</f>
-        <v>0.43179266003471051</v>
+        <v>0.46882070166833179</v>
       </c>
       <c r="E138">
         <f t="shared" si="4"/>
-        <v>3.3667089999652888</v>
+        <v>3.3296809583316676</v>
       </c>
       <c r="F138">
         <f t="shared" si="5"/>
-        <v>3.3667089999652888</v>
+        <v>3.3296809583316676</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -6206,15 +6214,15 @@
       </c>
       <c r="D139">
         <f>[2]excluding_NM!G139</f>
-        <v>0.4756045555288887</v>
+        <v>0.516389651972742</v>
       </c>
       <c r="E139">
         <f t="shared" si="4"/>
-        <v>7.7718830768311102</v>
+        <v>7.7310979803872568</v>
       </c>
       <c r="F139">
         <f t="shared" si="5"/>
-        <v>7.7718830768311102</v>
+        <v>7.7310979803872568</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -6230,15 +6238,15 @@
       </c>
       <c r="D140">
         <f>[2]excluding_NM!G140</f>
-        <v>0.51534351479952167</v>
+        <v>0.55953639459530002</v>
       </c>
       <c r="E140">
         <f t="shared" si="4"/>
-        <v>5.0217864430804777</v>
+        <v>4.9775935632846995</v>
       </c>
       <c r="F140">
         <f t="shared" si="5"/>
-        <v>5.0217864430804777</v>
+        <v>4.9775935632846995</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -6254,15 +6262,15 @@
       </c>
       <c r="D141">
         <f>[2]excluding_NM!G141</f>
-        <v>0.49878689469381848</v>
+        <v>0.5415599744899009</v>
       </c>
       <c r="E141">
         <f t="shared" si="4"/>
-        <v>1.0907802791061814</v>
+        <v>1.048007199310099</v>
       </c>
       <c r="F141">
         <f t="shared" si="5"/>
-        <v>1.0907802791061814</v>
+        <v>1.048007199310099</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -6278,15 +6286,15 @@
       </c>
       <c r="D142">
         <f>[2]excluding_NM!G142</f>
-        <v>0.41841070369608752</v>
+        <v>0.4542911861368174</v>
       </c>
       <c r="E142">
         <f t="shared" si="4"/>
-        <v>0.45338705722391232</v>
+        <v>0.41750657478318243</v>
       </c>
       <c r="F142">
         <f t="shared" si="5"/>
-        <v>0.45338705722391232</v>
+        <v>0.41750657478318243</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -6302,15 +6310,15 @@
       </c>
       <c r="D143">
         <f>[2]excluding_NM!G143</f>
-        <v>0.3585680997480683</v>
+        <v>0.38931682652098892</v>
       </c>
       <c r="E143">
         <f t="shared" si="4"/>
-        <v>0.42312764761193161</v>
+        <v>0.39237892083901099</v>
       </c>
       <c r="F143">
         <f t="shared" si="5"/>
-        <v>0.42312764761193161</v>
+        <v>0.39237892083901099</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -6326,15 +6334,15 @@
       </c>
       <c r="D144">
         <f>[2]excluding_NM!G144</f>
-        <v>0.2729020820622643</v>
+        <v>0.29630458653209735</v>
       </c>
       <c r="E144">
         <f t="shared" si="4"/>
-        <v>0.37625747277773569</v>
+        <v>0.35285496830790264</v>
       </c>
       <c r="F144">
         <f t="shared" si="5"/>
-        <v>0.37625747277773569</v>
+        <v>0.35285496830790264</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -6350,15 +6358,15 @@
       </c>
       <c r="D145">
         <f>[2]excluding_NM!G145</f>
-        <v>0.2407485346462267</v>
+        <v>0.2613937368212641</v>
       </c>
       <c r="E145">
         <f t="shared" si="4"/>
-        <v>0.20400488199377326</v>
+        <v>0.18335967981873585</v>
       </c>
       <c r="F145">
         <f t="shared" si="5"/>
-        <v>0.20400488199377326</v>
+        <v>0.18335967981873585</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -6374,15 +6382,15 @@
       </c>
       <c r="D146">
         <f>[2]excluding_NM!G146</f>
-        <v>0.25102682450557612</v>
+        <v>0.27438539113675037</v>
       </c>
       <c r="E146">
         <f t="shared" si="4"/>
-        <v>0.21994667649442384</v>
+        <v>0.19658810986324959</v>
       </c>
       <c r="F146">
         <f t="shared" si="5"/>
-        <v>0.21994667649442384</v>
+        <v>0.19658810986324959</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -6398,15 +6406,15 @@
       </c>
       <c r="D147">
         <f>[2]excluding_NM!G147</f>
-        <v>0.23184629848643562</v>
+        <v>0.25342007739254696</v>
       </c>
       <c r="E147">
         <f t="shared" si="4"/>
-        <v>0.24246006547356436</v>
+        <v>0.22088628656745302</v>
       </c>
       <c r="F147">
         <f t="shared" si="5"/>
-        <v>0.24246006547356436</v>
+        <v>0.22088628656745302</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -6422,15 +6430,15 @@
       </c>
       <c r="D148">
         <f>[2]excluding_NM!G148</f>
-        <v>0.31063765392801906</v>
+        <v>0.33954313186537027</v>
       </c>
       <c r="E148">
         <f t="shared" si="4"/>
-        <v>0.59417296571198075</v>
+        <v>0.56526748777462954</v>
       </c>
       <c r="F148">
         <f t="shared" si="5"/>
-        <v>0.59417296571198075</v>
+        <v>0.56526748777462954</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -6446,15 +6454,15 @@
       </c>
       <c r="D149">
         <f>[2]excluding_NM!G149</f>
-        <v>0.35637015785872334</v>
+        <v>0.38953114013263224</v>
       </c>
       <c r="E149">
         <f t="shared" si="4"/>
-        <v>1.1535647806212763</v>
+        <v>1.1204037983473674</v>
       </c>
       <c r="F149">
         <f t="shared" si="5"/>
-        <v>1.1535647806212763</v>
+        <v>1.1204037983473674</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -6470,15 +6478,15 @@
       </c>
       <c r="D150">
         <f>[2]excluding_NM!G150</f>
-        <v>0.46089808324822829</v>
+        <v>0.50378560576275966</v>
       </c>
       <c r="E150">
         <f t="shared" si="4"/>
-        <v>1.2088255548717715</v>
+        <v>1.1659380323572401</v>
       </c>
       <c r="F150">
         <f t="shared" si="5"/>
-        <v>1.2088255548717715</v>
+        <v>1.1659380323572401</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -6494,15 +6502,15 @@
       </c>
       <c r="D151">
         <f>[2]excluding_NM!G151</f>
-        <v>0.5076631640977155</v>
+        <v>0.55490227437258499</v>
       </c>
       <c r="E151">
         <f t="shared" si="4"/>
-        <v>0.81798739542228438</v>
+        <v>0.77074828514741489</v>
       </c>
       <c r="F151">
         <f t="shared" si="5"/>
-        <v>0.81798739542228438</v>
+        <v>0.77074828514741489</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -6518,15 +6526,15 @@
       </c>
       <c r="D152">
         <f>[2]excluding_NM!G152</f>
-        <v>0.55008076831692987</v>
+        <v>0.60126692463534792</v>
       </c>
       <c r="E152">
         <f t="shared" si="4"/>
-        <v>0.36913073032306998</v>
+        <v>0.31794457400465193</v>
       </c>
       <c r="F152">
         <f t="shared" si="5"/>
-        <v>0.36913073032306998</v>
+        <v>0.31794457400465193</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -6542,15 +6550,15 @@
       </c>
       <c r="D153">
         <f>[2]excluding_NM!G153</f>
-        <v>0.53240813240140916</v>
+        <v>0.5819498132961578</v>
       </c>
       <c r="E153">
         <f t="shared" si="4"/>
-        <v>0.2500005663985907</v>
+        <v>0.20045888550384205</v>
       </c>
       <c r="F153">
         <f t="shared" si="5"/>
-        <v>0.2500005663985907</v>
+        <v>0.20045888550384205</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -6566,15 +6574,15 @@
       </c>
       <c r="D154">
         <f>[2]excluding_NM!G154</f>
-        <v>0.44661410253839634</v>
+        <v>0.48817247102396616</v>
       </c>
       <c r="E154">
         <f t="shared" si="4"/>
-        <v>1.766036858160358E-2</v>
+        <v>-2.3897999903966238E-2</v>
       </c>
       <c r="F154">
         <f t="shared" si="5"/>
-        <v>1.766036858160358E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -6590,15 +6598,15 @@
       </c>
       <c r="D155">
         <f>[2]excluding_NM!G155</f>
-        <v>0.38273774703479019</v>
+        <v>0.41835228816594749</v>
       </c>
       <c r="E155">
         <f t="shared" si="4"/>
-        <v>3.9049505485209746E-2</v>
+        <v>3.4349643540524388E-3</v>
       </c>
       <c r="F155">
         <f t="shared" si="5"/>
-        <v>3.9049505485209746E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -6614,15 +6622,15 @@
       </c>
       <c r="D156">
         <f>[2]excluding_NM!G156</f>
-        <v>0.29129732433811456</v>
+        <v>0.31840314449672263</v>
       </c>
       <c r="E156">
         <f t="shared" si="4"/>
-        <v>9.6104206221885424E-2</v>
+        <v>6.899838606327735E-2</v>
       </c>
       <c r="F156">
         <f t="shared" si="5"/>
-        <v>9.6104206221885424E-2</v>
+        <v>6.899838606327735E-2</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -6638,15 +6646,15 @@
       </c>
       <c r="D157">
         <f>[2]excluding_NM!G157</f>
-        <v>0.25697643437094503</v>
+        <v>0.28088862453913938</v>
       </c>
       <c r="E157">
         <f t="shared" si="4"/>
-        <v>2.3014891269054927E-2</v>
+        <v>-8.972988991394204E-4</v>
       </c>
       <c r="F157">
         <f t="shared" si="5"/>
-        <v>2.3014891269054927E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -6662,15 +6670,15 @@
       </c>
       <c r="D158">
         <f>[2]excluding_NM!G158</f>
-        <v>0.19193870889010725</v>
+        <v>0.20905690126369364</v>
       </c>
       <c r="E158">
         <f t="shared" si="4"/>
-        <v>7.2437993429892739E-2</v>
+        <v>5.531980105630635E-2</v>
       </c>
       <c r="F158">
         <f t="shared" si="5"/>
-        <v>7.2437993429892739E-2</v>
+        <v>5.531980105630635E-2</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -6686,15 +6694,15 @@
       </c>
       <c r="D159">
         <f>[2]excluding_NM!G159</f>
-        <v>0.17727300371219248</v>
+        <v>0.1930832245776784</v>
       </c>
       <c r="E159">
         <f t="shared" si="4"/>
-        <v>0.17821346532780749</v>
+        <v>0.16240324446232157</v>
       </c>
       <c r="F159">
         <f t="shared" si="5"/>
-        <v>0.17821346532780749</v>
+        <v>0.16240324446232157</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -6710,15 +6718,15 @@
       </c>
       <c r="D160">
         <f>[2]excluding_NM!G160</f>
-        <v>0.23751800368359238</v>
+        <v>0.25870121838143539</v>
       </c>
       <c r="E160">
         <f t="shared" si="4"/>
-        <v>0.20414184511640759</v>
+        <v>0.18295863041856458</v>
       </c>
       <c r="F160">
         <f t="shared" si="5"/>
-        <v>0.20414184511640759</v>
+        <v>0.18295863041856458</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -6734,15 +6742,15 @@
       </c>
       <c r="D161">
         <f>[2]excluding_NM!G161</f>
-        <v>0.27248573183798391</v>
+        <v>0.29678756862553191</v>
       </c>
       <c r="E161">
         <f t="shared" si="4"/>
-        <v>0.39923663916201596</v>
+        <v>0.37493480237446797</v>
       </c>
       <c r="F161">
         <f t="shared" si="5"/>
-        <v>0.39923663916201596</v>
+        <v>0.37493480237446797</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -6758,15 +6766,15 @@
       </c>
       <c r="D162">
         <f>[2]excluding_NM!G162</f>
-        <v>0.35240928216667555</v>
+        <v>0.38383915851236122</v>
       </c>
       <c r="E162">
         <f t="shared" si="4"/>
-        <v>2.0686923983933241</v>
+        <v>2.0372625220476386</v>
       </c>
       <c r="F162">
         <f t="shared" si="5"/>
-        <v>2.0686923983933241</v>
+        <v>2.0372625220476386</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -6782,15 +6790,15 @@
       </c>
       <c r="D163">
         <f>[2]excluding_NM!G163</f>
-        <v>0.38816653343681884</v>
+        <v>0.42278544606149415</v>
       </c>
       <c r="E163">
         <f t="shared" si="4"/>
-        <v>2.0316523279231813</v>
+        <v>1.9970334152985059</v>
       </c>
       <c r="F163">
         <f t="shared" si="5"/>
-        <v>2.0316523279231813</v>
+        <v>1.9970334152985059</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -6806,15 +6814,15 @@
       </c>
       <c r="D164">
         <f>[2]excluding_NM!G164</f>
-        <v>0.42059964174738795</v>
+        <v>0.45811112456045372</v>
       </c>
       <c r="E164">
         <f t="shared" si="4"/>
-        <v>0.65475068921261192</v>
+        <v>0.61723920639954621</v>
       </c>
       <c r="F164">
         <f t="shared" si="5"/>
-        <v>0.65475068921261192</v>
+        <v>0.61723920639954621</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -6830,15 +6838,15 @@
       </c>
       <c r="D165">
         <f>[2]excluding_NM!G165</f>
-        <v>0.40708689096072986</v>
+        <v>0.4433932293357617</v>
       </c>
       <c r="E165">
         <f t="shared" si="4"/>
-        <v>0.48905606471927004</v>
+        <v>0.45274972634423821</v>
       </c>
       <c r="F165">
         <f t="shared" si="5"/>
-        <v>0.48905606471927004</v>
+        <v>0.45274972634423821</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -6854,15 +6862,15 @@
       </c>
       <c r="D166">
         <f>[2]excluding_NM!G166</f>
-        <v>0.34148754573210793</v>
+        <v>0.37194335912602305</v>
       </c>
       <c r="E166">
         <f t="shared" si="4"/>
-        <v>1.073669256507892</v>
+        <v>1.0432134431139768</v>
       </c>
       <c r="F166">
         <f t="shared" si="5"/>
-        <v>1.073669256507892</v>
+        <v>1.0432134431139768</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -6878,15 +6886,15 @@
       </c>
       <c r="D167">
         <f>[2]excluding_NM!G167</f>
-        <v>0.29264676854379068</v>
+        <v>0.31874668195057099</v>
       </c>
       <c r="E167">
         <f t="shared" si="4"/>
-        <v>0.50557514385620916</v>
+        <v>0.47947523044942886</v>
       </c>
       <c r="F167">
         <f t="shared" si="5"/>
-        <v>0.50557514385620916</v>
+        <v>0.47947523044942886</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -6902,15 +6910,15 @@
       </c>
       <c r="D168">
         <f>[2]excluding_NM!G168</f>
-        <v>0.22273011040443033</v>
+        <v>0.24259445616011693</v>
       </c>
       <c r="E168">
         <f t="shared" si="4"/>
-        <v>0.42104283727556957</v>
+        <v>0.401178491519883</v>
       </c>
       <c r="F168">
         <f t="shared" si="5"/>
-        <v>0.42104283727556957</v>
+        <v>0.401178491519883</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -6926,15 +6934,15 @@
       </c>
       <c r="D169">
         <f>[2]excluding_NM!G169</f>
-        <v>0.19648786589039183</v>
+        <v>0.21401177811652294</v>
       </c>
       <c r="E169">
         <f t="shared" si="4"/>
-        <v>0.22009410102960811</v>
+        <v>0.20257018880347699</v>
       </c>
       <c r="F169">
         <f t="shared" si="5"/>
-        <v>0.22009410102960811</v>
+        <v>0.20257018880347699</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -6950,15 +6958,15 @@
       </c>
       <c r="D170">
         <f>[2]excluding_NM!G170</f>
-        <v>0.21760464174632829</v>
+        <v>0.23722045313365828</v>
       </c>
       <c r="E170">
         <f t="shared" si="4"/>
-        <v>0.16273398233367167</v>
+        <v>0.14311817094634169</v>
       </c>
       <c r="F170">
         <f t="shared" si="5"/>
-        <v>0.16273398233367167</v>
+        <v>0.14311817094634169</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -6974,15 +6982,15 @@
       </c>
       <c r="D171">
         <f>[2]excluding_NM!G171</f>
-        <v>0.20097784697600093</v>
+        <v>0.21909484810095245</v>
       </c>
       <c r="E171">
         <f t="shared" si="4"/>
-        <v>0.25888569966399899</v>
+        <v>0.2407686985390475</v>
       </c>
       <c r="F171">
         <f t="shared" si="5"/>
-        <v>0.25888569966399899</v>
+        <v>0.2407686985390475</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -6998,15 +7006,15 @@
       </c>
       <c r="D172">
         <f>[2]excluding_NM!G172</f>
-        <v>0.26927877341022954</v>
+        <v>0.29355271162880969</v>
       </c>
       <c r="E172">
         <f t="shared" si="4"/>
-        <v>0.42253451982977031</v>
+        <v>0.39826058161119016</v>
       </c>
       <c r="F172">
         <f t="shared" si="5"/>
-        <v>0.42253451982977031</v>
+        <v>0.39826058161119016</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -7022,15 +7030,15 @@
       </c>
       <c r="D173">
         <f>[2]excluding_NM!G173</f>
-        <v>0.30892236589722444</v>
+        <v>0.33676994678583366</v>
       </c>
       <c r="E173">
         <f t="shared" si="4"/>
-        <v>1.2533947677427755</v>
+        <v>1.2255471868541663</v>
       </c>
       <c r="F173">
         <f t="shared" si="5"/>
-        <v>1.2533947677427755</v>
+        <v>1.2255471868541663</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -7046,15 +7054,15 @@
       </c>
       <c r="D174">
         <f>[2]excluding_NM!G174</f>
-        <v>0.39953324703182175</v>
+        <v>0.43554887957462329</v>
       </c>
       <c r="E174">
         <f t="shared" si="4"/>
-        <v>3.2135973381281779</v>
+        <v>3.1775817055853763</v>
       </c>
       <c r="F174">
         <f t="shared" si="5"/>
-        <v>3.2135973381281779</v>
+        <v>3.1775817055853763</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -7070,15 +7078,15 @@
       </c>
       <c r="D175">
         <f>[2]excluding_NM!G175</f>
-        <v>0.44007193720779808</v>
+        <v>0.47974190034759295</v>
       </c>
       <c r="E175">
         <f t="shared" si="4"/>
-        <v>4.4046304543922012</v>
+        <v>4.3649604912524067</v>
       </c>
       <c r="F175">
         <f t="shared" si="5"/>
-        <v>4.4046304543922012</v>
+        <v>4.3649604912524067</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -7094,15 +7102,15 @@
       </c>
       <c r="D176">
         <f>[2]excluding_NM!G176</f>
-        <v>0.47684198195516592</v>
+        <v>0.51982655390421983</v>
       </c>
       <c r="E176">
         <f t="shared" si="4"/>
-        <v>1.4025966922848339</v>
+        <v>1.3596121203357798</v>
       </c>
       <c r="F176">
         <f t="shared" si="5"/>
-        <v>1.4025966922848339</v>
+        <v>1.3596121203357798</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -7118,15 +7126,15 @@
       </c>
       <c r="D177">
         <f>[2]excluding_NM!G177</f>
-        <v>0.46152231396874815</v>
+        <v>0.50312590564400617</v>
       </c>
       <c r="E177">
         <f t="shared" si="4"/>
-        <v>0.64822977419125172</v>
+        <v>0.60662618251599365</v>
       </c>
       <c r="F177">
         <f t="shared" si="5"/>
-        <v>0.64822977419125172</v>
+        <v>0.60662618251599365</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -7142,15 +7150,15 @@
       </c>
       <c r="D178">
         <f>[2]excluding_NM!G178</f>
-        <v>0.38715106233424407</v>
+        <v>0.42205051188737436</v>
       </c>
       <c r="E178">
         <f t="shared" si="4"/>
-        <v>0.58675047254575574</v>
+        <v>0.55185102299262545</v>
       </c>
       <c r="F178">
         <f t="shared" si="5"/>
-        <v>0.58675047254575574</v>
+        <v>0.55185102299262545</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -7166,15 +7174,15 @@
       </c>
       <c r="D179">
         <f>[2]excluding_NM!G179</f>
-        <v>0.33177932474085969</v>
+        <v>0.361687329478733</v>
       </c>
       <c r="E179">
         <f t="shared" si="4"/>
-        <v>0.75180448521914023</v>
+        <v>0.72189648048126687</v>
       </c>
       <c r="F179">
         <f t="shared" si="5"/>
-        <v>0.75180448521914023</v>
+        <v>0.72189648048126687</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -7190,15 +7198,15 @@
       </c>
       <c r="D180">
         <f>[2]excluding_NM!G180</f>
-        <v>0.25251345161660743</v>
+        <v>0.27527609215554083</v>
       </c>
       <c r="E180">
         <f t="shared" si="4"/>
-        <v>0.32142232542339255</v>
+        <v>0.29865968488445915</v>
       </c>
       <c r="F180">
         <f t="shared" si="5"/>
-        <v>0.32142232542339255</v>
+        <v>0.29865968488445915</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -7214,15 +7222,15 @@
       </c>
       <c r="D181">
         <f>[2]excluding_NM!G181</f>
-        <v>0.22276210938284083</v>
+        <v>0.24284283692077399</v>
       </c>
       <c r="E181">
         <f t="shared" si="4"/>
-        <v>0.29955129617715914</v>
+        <v>0.27947056863922592</v>
       </c>
       <c r="F181">
         <f t="shared" si="5"/>
-        <v>0.29955129617715914</v>
+        <v>0.27947056863922592</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -7238,15 +7246,15 @@
       </c>
       <c r="D182">
         <f>[2]excluding_NM!G182</f>
-        <v>0.2142367320523425</v>
+        <v>0.23145895592232837</v>
       </c>
       <c r="E182">
         <f t="shared" si="4"/>
-        <v>0.28927350438765742</v>
+        <v>0.27205128051767158</v>
       </c>
       <c r="F182">
         <f t="shared" si="5"/>
-        <v>0.28927350438765742</v>
+        <v>0.27205128051767158</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -7262,15 +7270,15 @@
       </c>
       <c r="D183">
         <f>[2]excluding_NM!G183</f>
-        <v>0.19786727344376931</v>
+        <v>0.21377357693872617</v>
       </c>
       <c r="E183">
         <f t="shared" si="4"/>
-        <v>0.44970849307623062</v>
+        <v>0.43380218958127376</v>
       </c>
       <c r="F183">
         <f t="shared" si="5"/>
-        <v>0.44970849307623062</v>
+        <v>0.43380218958127376</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -7286,15 +7294,15 @@
       </c>
       <c r="D184">
         <f>[2]excluding_NM!G184</f>
-        <v>0.26511109305159941</v>
+        <v>0.28642304339369007</v>
       </c>
       <c r="E184">
         <f t="shared" si="4"/>
-        <v>0.60063398150840053</v>
+        <v>0.57932203116630987</v>
       </c>
       <c r="F184">
         <f t="shared" si="5"/>
-        <v>0.60063398150840053</v>
+        <v>0.57932203116630987</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -7310,15 +7318,15 @@
       </c>
       <c r="D185">
         <f>[2]excluding_NM!G185</f>
-        <v>0.30414111388695181</v>
+        <v>0.32859063895788226</v>
       </c>
       <c r="E185">
         <f t="shared" si="4"/>
-        <v>0.74205591727304809</v>
+        <v>0.71760639220211764</v>
       </c>
       <c r="F185">
         <f t="shared" si="5"/>
-        <v>0.74205591727304809</v>
+        <v>0.71760639220211764</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -7334,15 +7342,15 @@
       </c>
       <c r="D186">
         <f>[2]excluding_NM!G186</f>
-        <v>0.39334959265317704</v>
+        <v>0.42497047614474215</v>
       </c>
       <c r="E186">
         <f t="shared" si="4"/>
-        <v>2.217430474906823</v>
+        <v>2.185809591415258</v>
       </c>
       <c r="F186">
         <f t="shared" si="5"/>
-        <v>2.217430474906823</v>
+        <v>2.185809591415258</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -7358,15 +7366,15 @@
       </c>
       <c r="D187">
         <f>[2]excluding_NM!G187</f>
-        <v>0.43326085757512633</v>
+        <v>0.46809015790929048</v>
       </c>
       <c r="E187">
         <f t="shared" si="4"/>
-        <v>4.8250150432248731</v>
+        <v>4.7901857428907091</v>
       </c>
       <c r="F187">
         <f t="shared" si="5"/>
-        <v>4.8250150432248731</v>
+        <v>4.7901857428907091</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -7382,15 +7390,15 @@
       </c>
       <c r="D188">
         <f>[2]excluding_NM!G188</f>
-        <v>0.4694618051324751</v>
+        <v>0.50720125452075171</v>
       </c>
       <c r="E188">
         <f t="shared" si="4"/>
-        <v>1.5632034551475249</v>
+        <v>1.5254640057592481</v>
       </c>
       <c r="F188">
         <f t="shared" si="5"/>
-        <v>1.5632034551475249</v>
+        <v>1.5254640057592481</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -7406,15 +7414,15 @@
       </c>
       <c r="D189">
         <f>[2]excluding_NM!G189</f>
-        <v>0.454379242650361</v>
+        <v>0.49090622363925712</v>
       </c>
       <c r="E189">
         <f t="shared" si="4"/>
-        <v>0.36826804070963881</v>
+        <v>0.33174105972074269</v>
       </c>
       <c r="F189">
         <f t="shared" si="5"/>
-        <v>0.36826804070963881</v>
+        <v>0.33174105972074269</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -7430,15 +7438,15 @@
       </c>
       <c r="D190">
         <f>[2]excluding_NM!G190</f>
-        <v>0.38115904945525225</v>
+        <v>0.41179995037314693</v>
       </c>
       <c r="E190">
         <f t="shared" si="4"/>
-        <v>0.2036856247047476</v>
+        <v>0.17304472378685293</v>
       </c>
       <c r="F190">
         <f t="shared" si="5"/>
-        <v>0.2036856247047476</v>
+        <v>0.17304472378685293</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -7454,15 +7462,15 @@
       </c>
       <c r="D191">
         <f>[2]excluding_NM!G191</f>
-        <v>0.32664431109826741</v>
+        <v>0.35290284014555157</v>
       </c>
       <c r="E191">
         <f t="shared" si="4"/>
-        <v>0.44362447754173251</v>
+        <v>0.41736594849444836</v>
       </c>
       <c r="F191">
         <f t="shared" si="5"/>
-        <v>0.44362447754173251</v>
+        <v>0.41736594849444836</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -7478,15 +7486,15 @@
       </c>
       <c r="D192">
         <f>[2]excluding_NM!G192</f>
-        <v>0.24860525142962439</v>
+        <v>0.26859031773622322</v>
       </c>
       <c r="E192">
         <f t="shared" si="4"/>
-        <v>0.29629687337037558</v>
+        <v>0.27631180706377678</v>
       </c>
       <c r="F192">
         <f t="shared" si="5"/>
-        <v>0.29629687337037558</v>
+        <v>0.27631180706377678</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -7502,15 +7510,15 @@
       </c>
       <c r="D193">
         <f>[2]excluding_NM!G193</f>
-        <v>0.21931437655130598</v>
+        <v>0.23694478593390497</v>
       </c>
       <c r="E193">
         <f t="shared" si="4"/>
-        <v>0.17148909184869393</v>
+        <v>0.15385868246609494</v>
       </c>
       <c r="F193">
         <f t="shared" si="5"/>
-        <v>0.17148909184869393</v>
+        <v>0.15385868246609494</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -7526,15 +7534,15 @@
       </c>
       <c r="D194">
         <f>[2]excluding_NM!G194</f>
-        <v>0.23618286983002471</v>
+        <v>0.25351346754178627</v>
       </c>
       <c r="E194">
         <f t="shared" si="4"/>
-        <v>0.20733213288997529</v>
+        <v>0.19000153517821372</v>
       </c>
       <c r="F194">
         <f t="shared" si="5"/>
-        <v>0.20733213288997529</v>
+        <v>0.19000153517821372</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -7550,15 +7558,15 @@
       </c>
       <c r="D195">
         <f>[2]excluding_NM!G195</f>
-        <v>0.21813654474515543</v>
+        <v>0.23414294142385045</v>
       </c>
       <c r="E195">
         <f t="shared" ref="E195:E241" si="6">C195-D195</f>
-        <v>0.33273685673484454</v>
+        <v>0.31673046005614952</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F241" si="7">IF(E195&lt;0, 0.01, E195)</f>
-        <v>0.33273685673484454</v>
+        <f t="shared" ref="F195:F241" si="7">IF(E195&lt;0.01, 0.01, E195)</f>
+        <v>0.31673046005614952</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -7574,15 +7582,15 @@
       </c>
       <c r="D196">
         <f>[2]excluding_NM!G196</f>
-        <v>0.29226873552852456</v>
+        <v>0.31371479502816313</v>
       </c>
       <c r="E196">
         <f t="shared" si="6"/>
-        <v>0.54589449275147528</v>
+        <v>0.52444843325183677</v>
       </c>
       <c r="F196">
         <f t="shared" si="7"/>
-        <v>0.54589449275147528</v>
+        <v>0.52444843325183677</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -7598,15 +7606,15 @@
       </c>
       <c r="D197">
         <f>[2]excluding_NM!G197</f>
-        <v>0.33529694195284121</v>
+        <v>0.35990031991649502</v>
       </c>
       <c r="E197">
         <f t="shared" si="6"/>
-        <v>1.0278822465671587</v>
+        <v>1.0032788686035048</v>
       </c>
       <c r="F197">
         <f t="shared" si="7"/>
-        <v>1.0278822465671587</v>
+        <v>1.0032788686035048</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -7622,15 +7630,15 @@
       </c>
       <c r="D198">
         <f>[2]excluding_NM!G198</f>
-        <v>0.43364382358390607</v>
+        <v>0.46546368698945856</v>
       </c>
       <c r="E198">
         <f t="shared" si="6"/>
-        <v>3.2505278086960936</v>
+        <v>3.2187079452905412</v>
       </c>
       <c r="F198">
         <f t="shared" si="7"/>
-        <v>3.2505278086960936</v>
+        <v>3.2187079452905412</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -7646,15 +7654,15 @@
       </c>
       <c r="D199">
         <f>[2]excluding_NM!G199</f>
-        <v>0.47764354761586769</v>
+        <v>0.51269201738552805</v>
       </c>
       <c r="E199">
         <f t="shared" si="6"/>
-        <v>4.3930371662641319</v>
+        <v>4.3579886964944716</v>
       </c>
       <c r="F199">
         <f t="shared" si="7"/>
-        <v>4.3930371662641319</v>
+        <v>4.3579886964944716</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -7670,15 +7678,15 @@
       </c>
       <c r="D200">
         <f>[2]excluding_NM!G200</f>
-        <v>0.51755287410135531</v>
+        <v>0.5555298055446547</v>
       </c>
       <c r="E200">
         <f t="shared" si="6"/>
-        <v>1.1974814183386446</v>
+        <v>1.1595044868953452</v>
       </c>
       <c r="F200">
         <f t="shared" si="7"/>
-        <v>1.1974814183386446</v>
+        <v>1.1595044868953452</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -7694,15 +7702,15 @@
       </c>
       <c r="D201">
         <f>[2]excluding_NM!G201</f>
-        <v>0.50092527314193602</v>
+        <v>0.53768210651738335</v>
       </c>
       <c r="E201">
         <f t="shared" si="6"/>
-        <v>0.29550315933806393</v>
+        <v>0.2587463259626166</v>
       </c>
       <c r="F201">
         <f t="shared" si="7"/>
-        <v>0.29550315933806393</v>
+        <v>0.2587463259626166</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -7718,15 +7726,15 @@
       </c>
       <c r="D202">
         <f>[2]excluding_NM!G202</f>
-        <v>0.42020449667814785</v>
+        <v>0.45103821079908812</v>
       </c>
       <c r="E202">
         <f t="shared" si="6"/>
-        <v>0.21016669080185213</v>
+        <v>0.17933297668091186</v>
       </c>
       <c r="F202">
         <f t="shared" si="7"/>
-        <v>0.21016669080185213</v>
+        <v>0.17933297668091186</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -7742,15 +7750,15 @@
       </c>
       <c r="D203">
         <f>[2]excluding_NM!G203</f>
-        <v>0.360105338005209</v>
+        <v>0.38652910341765229</v>
       </c>
       <c r="E203">
         <f t="shared" si="6"/>
-        <v>0.33243817539479087</v>
+        <v>0.30601440998234758</v>
       </c>
       <c r="F203">
         <f t="shared" si="7"/>
-        <v>0.33243817539479087</v>
+        <v>0.30601440998234758</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -7766,15 +7774,15 @@
       </c>
       <c r="D204">
         <f>[2]excluding_NM!G204</f>
-        <v>0.27407205652818645</v>
+        <v>0.29418288234355366</v>
       </c>
       <c r="E204">
         <f t="shared" si="6"/>
-        <v>0.25432117195181347</v>
+        <v>0.23421034613644626</v>
       </c>
       <c r="F204">
         <f t="shared" si="7"/>
-        <v>0.25432117195181347</v>
+        <v>0.23421034613644626</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -7790,15 +7798,15 @@
       </c>
       <c r="D205">
         <f>[2]excluding_NM!G205</f>
-        <v>0.24178066175978974</v>
+        <v>0.25952201356256016</v>
       </c>
       <c r="E205">
         <f t="shared" si="6"/>
-        <v>0.18474932136021022</v>
+        <v>0.16700796955743979</v>
       </c>
       <c r="F205">
         <f t="shared" si="7"/>
-        <v>0.18474932136021022</v>
+        <v>0.16700796955743979</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -7814,15 +7822,15 @@
       </c>
       <c r="D206">
         <f>[2]excluding_NM!G206</f>
-        <v>0.2528152445324236</v>
+        <v>0.27322852050291047</v>
       </c>
       <c r="E206">
         <f t="shared" si="6"/>
-        <v>0.26270168622757634</v>
+        <v>0.24228841025708947</v>
       </c>
       <c r="F206">
         <f t="shared" si="7"/>
-        <v>0.26270168622757634</v>
+        <v>0.24228841025708947</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -7838,15 +7846,15 @@
       </c>
       <c r="D207">
         <f>[2]excluding_NM!G207</f>
-        <v>0.23349806842847379</v>
+        <v>0.25235160124537936</v>
       </c>
       <c r="E207">
         <f t="shared" si="6"/>
-        <v>0.5088583012915262</v>
+        <v>0.4900047684746206</v>
       </c>
       <c r="F207">
         <f t="shared" si="7"/>
-        <v>0.5088583012915262</v>
+        <v>0.4900047684746206</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -7862,15 +7870,15 @@
       </c>
       <c r="D208">
         <f>[2]excluding_NM!G208</f>
-        <v>0.31285076642096477</v>
+        <v>0.33811154151520723</v>
       </c>
       <c r="E208">
         <f t="shared" si="6"/>
-        <v>1.3069107642990352</v>
+        <v>1.2816499892047928</v>
       </c>
       <c r="F208">
         <f t="shared" si="7"/>
-        <v>1.3069107642990352</v>
+        <v>1.2816499892047928</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -7886,15 +7894,15 @@
       </c>
       <c r="D209">
         <f>[2]excluding_NM!G209</f>
-        <v>0.35890908782583203</v>
+        <v>0.38788878907626345</v>
       </c>
       <c r="E209">
         <f t="shared" si="6"/>
-        <v>2.0027018523341678</v>
+        <v>1.9737221510837364</v>
       </c>
       <c r="F209">
         <f t="shared" si="7"/>
-        <v>2.0027018523341678</v>
+        <v>1.9737221510837364</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -7910,15 +7918,15 @@
       </c>
       <c r="D210">
         <f>[2]excluding_NM!G210</f>
-        <v>0.46418171384842516</v>
+        <v>0.50166153213535691</v>
       </c>
       <c r="E210">
         <f t="shared" si="6"/>
-        <v>3.4878018625515743</v>
+        <v>3.4503220442646425</v>
       </c>
       <c r="F210">
         <f t="shared" si="7"/>
-        <v>3.4878018625515743</v>
+        <v>3.4503220442646425</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -7934,15 +7942,15 @@
       </c>
       <c r="D211">
         <f>[2]excluding_NM!G211</f>
-        <v>0.51127996868166137</v>
+        <v>0.55256268135266118</v>
       </c>
       <c r="E211">
         <f t="shared" si="6"/>
-        <v>5.008885938758338</v>
+        <v>4.9676032260873377</v>
       </c>
       <c r="F211">
         <f t="shared" si="7"/>
-        <v>5.008885938758338</v>
+        <v>4.9676032260873377</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -7958,15 +7966,15 @@
       </c>
       <c r="D212">
         <f>[2]excluding_NM!G212</f>
-        <v>0.55399977364386777</v>
+        <v>0.59873184780298416</v>
       </c>
       <c r="E212">
         <f t="shared" si="6"/>
-        <v>1.7408922333161319</v>
+        <v>1.6961601591570155</v>
       </c>
       <c r="F212">
         <f t="shared" si="7"/>
-        <v>1.7408922333161319</v>
+        <v>1.6961601591570155</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -7982,15 +7990,15 @@
       </c>
       <c r="D213">
         <f>[2]excluding_NM!G213</f>
-        <v>0.53620123048293311</v>
+        <v>0.57949618175775208</v>
       </c>
       <c r="E213">
         <f t="shared" si="6"/>
-        <v>0.61025428855706676</v>
+        <v>0.56695933728224779</v>
       </c>
       <c r="F213">
         <f t="shared" si="7"/>
-        <v>0.61025428855706676</v>
+        <v>0.56695933728224779</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -8006,15 +8014,15 @@
       </c>
       <c r="D214">
         <f>[2]excluding_NM!G214</f>
-        <v>0.44979596808932043</v>
+        <v>0.48611422589059011</v>
       </c>
       <c r="E214">
         <f t="shared" si="6"/>
-        <v>4.6721670230679524E-2</v>
+        <v>1.0403412429409842E-2</v>
       </c>
       <c r="F214">
         <f t="shared" si="7"/>
-        <v>4.6721670230679524E-2</v>
+        <v>1.0403412429409842E-2</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -8030,15 +8038,15 @@
       </c>
       <c r="D215">
         <f>[2]excluding_NM!G215</f>
-        <v>0.38546453072882642</v>
+        <v>0.41658842065545859</v>
       </c>
       <c r="E215">
         <f t="shared" si="6"/>
-        <v>0.29738753031117354</v>
+        <v>0.26626364038454137</v>
       </c>
       <c r="F215">
         <f t="shared" si="7"/>
-        <v>0.29738753031117354</v>
+        <v>0.26626364038454137</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -8054,15 +8062,15 @@
       </c>
       <c r="D216">
         <f>[2]excluding_NM!G216</f>
-        <v>0.29337264823881504</v>
+        <v>0.31706068509659019</v>
       </c>
       <c r="E216">
         <f t="shared" si="6"/>
-        <v>0.22628630836118491</v>
+        <v>0.20259827150340975</v>
       </c>
       <c r="F216">
         <f t="shared" si="7"/>
-        <v>0.22628630836118491</v>
+        <v>0.20259827150340975</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -8078,15 +8086,15 @@
       </c>
       <c r="D217">
         <f>[2]excluding_NM!G217</f>
-        <v>0.25880724190540694</v>
+        <v>0.27970433480795959</v>
       </c>
       <c r="E217">
         <f t="shared" si="6"/>
-        <v>0.11726107441459305</v>
+        <v>9.6363981512040398E-2</v>
       </c>
       <c r="F217">
         <f t="shared" si="7"/>
-        <v>0.11726107441459305</v>
+        <v>9.6363981512040398E-2</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -8102,15 +8110,15 @@
       </c>
       <c r="D218">
         <f>[2]excluding_NM!G218</f>
-        <v>0.25290127713037042</v>
+        <v>0.27399665348081959</v>
       </c>
       <c r="E218">
         <f t="shared" si="6"/>
-        <v>0.11318325206962954</v>
+        <v>9.2087875719180368E-2</v>
       </c>
       <c r="F218">
         <f t="shared" si="7"/>
-        <v>0.11318325206962954</v>
+        <v>9.2087875719180368E-2</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -8126,15 +8134,15 @@
       </c>
       <c r="D219">
         <f>[2]excluding_NM!G219</f>
-        <v>0.23357752742423024</v>
+        <v>0.25306104250937317</v>
       </c>
       <c r="E219">
         <f t="shared" si="6"/>
-        <v>0.17025889065576974</v>
+        <v>0.15077537557062681</v>
       </c>
       <c r="F219">
         <f t="shared" si="7"/>
-        <v>0.17025889065576974</v>
+        <v>0.15077537557062681</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -8150,15 +8158,15 @@
       </c>
       <c r="D220">
         <f>[2]excluding_NM!G220</f>
-        <v>0.31295722900495421</v>
+        <v>0.3390620814689847</v>
       </c>
       <c r="E220">
         <f t="shared" si="6"/>
-        <v>0.24346806595504572</v>
+        <v>0.21736321349101523</v>
       </c>
       <c r="F220">
         <f t="shared" si="7"/>
-        <v>0.24346806595504572</v>
+        <v>0.21736321349101523</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -8174,15 +8182,15 @@
       </c>
       <c r="D221">
         <f>[2]excluding_NM!G221</f>
-        <v>0.35903122397829973</v>
+        <v>0.38897926883328987</v>
       </c>
       <c r="E221">
         <f t="shared" si="6"/>
-        <v>0.50693217654170009</v>
+        <v>0.47698413168671</v>
       </c>
       <c r="F221">
         <f t="shared" si="7"/>
-        <v>0.50693217654170009</v>
+        <v>0.47698413168671</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -8198,15 +8206,15 @@
       </c>
       <c r="D222">
         <f>[2]excluding_NM!G222</f>
-        <v>0.46433967409657251</v>
+        <v>0.50307186355270783</v>
       </c>
       <c r="E222">
         <f t="shared" si="6"/>
-        <v>2.112478988623427</v>
+        <v>2.0737467991672918</v>
       </c>
       <c r="F222">
         <f t="shared" si="7"/>
-        <v>2.112478988623427</v>
+        <v>2.0737467991672918</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -8222,15 +8230,15 @@
       </c>
       <c r="D223">
         <f>[2]excluding_NM!G223</f>
-        <v>0.51145395638586488</v>
+        <v>0.55411611222117974</v>
       </c>
       <c r="E223">
         <f t="shared" si="6"/>
-        <v>1.5280706861741347</v>
+        <v>1.4854085303388198</v>
       </c>
       <c r="F223">
         <f t="shared" si="7"/>
-        <v>1.5280706861741347</v>
+        <v>1.4854085303388198</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -8246,15 +8254,15 @@
       </c>
       <c r="D224">
         <f>[2]excluding_NM!G224</f>
-        <v>0.55418829882507936</v>
+        <v>0.60041507500187041</v>
       </c>
       <c r="E224">
         <f t="shared" si="6"/>
-        <v>0.49718564789492048</v>
+        <v>0.45095887171812943</v>
       </c>
       <c r="F224">
         <f t="shared" si="7"/>
-        <v>0.49718564789492048</v>
+        <v>0.45095887171812943</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -8270,15 +8278,15 @@
       </c>
       <c r="D225">
         <f>[2]excluding_NM!G225</f>
-        <v>0.53638369885016324</v>
+        <v>0.58112533133174682</v>
       </c>
       <c r="E225">
         <f t="shared" si="6"/>
-        <v>5.0367935389836638E-2</v>
+        <v>5.6263029082530558E-3</v>
       </c>
       <c r="F225">
         <f t="shared" si="7"/>
-        <v>5.0367935389836638E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -8294,11 +8302,11 @@
       </c>
       <c r="D226">
         <f>[2]excluding_NM!G226</f>
-        <v>0.44994903289264077</v>
+        <v>0.48748084884506815</v>
       </c>
       <c r="E226">
         <f t="shared" si="6"/>
-        <v>-1.776231049264082E-2</v>
+        <v>-5.5294126445068204E-2</v>
       </c>
       <c r="F226">
         <f t="shared" si="7"/>
@@ -8318,15 +8326,15 @@
       </c>
       <c r="D227">
         <f>[2]excluding_NM!G227</f>
-        <v>0.3855957036533717</v>
+        <v>0.41775958427897614</v>
       </c>
       <c r="E227">
         <f t="shared" si="6"/>
-        <v>0.21165777930662821</v>
+        <v>0.17949389868102378</v>
       </c>
       <c r="F227">
         <f t="shared" si="7"/>
-        <v>0.21165777930662821</v>
+        <v>0.17949389868102378</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -8342,15 +8350,15 @@
       </c>
       <c r="D228">
         <f>[2]excluding_NM!G228</f>
-        <v>0.29347248245229851</v>
+        <v>0.31795204434332214</v>
       </c>
       <c r="E228">
         <f t="shared" si="6"/>
-        <v>6.7914954907701441E-2</v>
+        <v>4.3435393016677815E-2</v>
       </c>
       <c r="F228">
         <f t="shared" si="7"/>
-        <v>6.7914954907701441E-2</v>
+        <v>4.3435393016677815E-2</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -8366,15 +8374,15 @@
       </c>
       <c r="D229">
         <f>[2]excluding_NM!G229</f>
-        <v>0.25889531356987383</v>
+        <v>0.28049067337625644</v>
       </c>
       <c r="E229">
         <f t="shared" si="6"/>
-        <v>5.5214068870126087E-2</v>
+        <v>3.3618709063743479E-2</v>
       </c>
       <c r="F229">
         <f t="shared" si="7"/>
-        <v>5.5214068870126087E-2</v>
+        <v>3.3618709063743479E-2</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -8390,15 +8398,15 @@
       </c>
       <c r="D230">
         <f>[2]excluding_NM!G230</f>
-        <v>0.25225897843174677</v>
+        <v>0.27201815448547617</v>
       </c>
       <c r="E230">
         <f t="shared" si="6"/>
-        <v>6.5437363848253216E-2</v>
+        <v>4.5678187794523817E-2</v>
       </c>
       <c r="F230">
         <f t="shared" si="7"/>
-        <v>6.5437363848253216E-2</v>
+        <v>4.5678187794523817E-2</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -8414,15 +8422,15 @@
       </c>
       <c r="D231">
         <f>[2]excluding_NM!G231</f>
-        <v>0.23298430565961661</v>
+        <v>0.25123371720446613</v>
       </c>
       <c r="E231">
         <f t="shared" si="6"/>
-        <v>0.13361088426038334</v>
+        <v>0.11536147271553382</v>
       </c>
       <c r="F231">
         <f t="shared" si="7"/>
-        <v>0.13361088426038334</v>
+        <v>0.11536147271553382</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -8438,15 +8446,15 @@
       </c>
       <c r="D232">
         <f>[2]excluding_NM!G232</f>
-        <v>0.3121624049408151</v>
+        <v>0.33661375234151819</v>
       </c>
       <c r="E232">
         <f t="shared" si="6"/>
-        <v>0.58498830389918477</v>
+        <v>0.56053695649848168</v>
       </c>
       <c r="F232">
         <f t="shared" si="7"/>
-        <v>0.58498830389918477</v>
+        <v>0.56053695649848168</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -8462,15 +8470,15 @@
       </c>
       <c r="D233">
         <f>[2]excluding_NM!G233</f>
-        <v>0.35811938481899158</v>
+        <v>0.38617049331424891</v>
       </c>
       <c r="E233">
         <f t="shared" si="6"/>
-        <v>1.7180568824610081</v>
+        <v>1.6900057739657508</v>
       </c>
       <c r="F233">
         <f t="shared" si="7"/>
-        <v>1.7180568824610081</v>
+        <v>1.6900057739657508</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -8486,15 +8494,15 @@
       </c>
       <c r="D234">
         <f>[2]excluding_NM!G234</f>
-        <v>0.46316038084912164</v>
+        <v>0.49943923824878517</v>
       </c>
       <c r="E234">
         <f t="shared" si="6"/>
-        <v>3.3799821538308774</v>
+        <v>3.3437032964312139</v>
       </c>
       <c r="F234">
         <f t="shared" si="7"/>
-        <v>3.3799821538308774</v>
+        <v>3.3437032964312139</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -8510,15 +8518,15 @@
       </c>
       <c r="D235">
         <f>[2]excluding_NM!G235</f>
-        <v>0.51015500600364427</v>
+        <v>0.55011490214286052</v>
       </c>
       <c r="E235">
         <f t="shared" si="6"/>
-        <v>6.590539133796355</v>
+        <v>6.5505792376571383</v>
       </c>
       <c r="F235">
         <f t="shared" si="7"/>
-        <v>6.590539133796355</v>
+        <v>6.5505792376571383</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -8534,15 +8542,15 @@
       </c>
       <c r="D236">
         <f>[2]excluding_NM!G236</f>
-        <v>0.5527808151335506</v>
+        <v>0.59607954532444896</v>
       </c>
       <c r="E236">
         <f t="shared" si="6"/>
-        <v>3.667085013746449</v>
+        <v>3.6237862835555505</v>
       </c>
       <c r="F236">
         <f t="shared" si="7"/>
-        <v>3.667085013746449</v>
+        <v>3.6237862835555505</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -8558,15 +8566,15 @@
       </c>
       <c r="D237">
         <f>[2]excluding_NM!G237</f>
-        <v>0.53502143387608481</v>
+        <v>0.57692909072222809</v>
       </c>
       <c r="E237">
         <f t="shared" si="6"/>
-        <v>0.76411547304391503</v>
+        <v>0.72220781619777175</v>
       </c>
       <c r="F237">
         <f t="shared" si="7"/>
-        <v>0.76411547304391503</v>
+        <v>0.72220781619777175</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -8582,15 +8590,15 @@
       </c>
       <c r="D238">
         <f>[2]excluding_NM!G238</f>
-        <v>0.4488062878596652</v>
+        <v>0.48396080450351692</v>
       </c>
       <c r="E238">
         <f t="shared" si="6"/>
-        <v>5.2370204420334743E-2</v>
+        <v>1.7215687776483024E-2</v>
       </c>
       <c r="F238">
         <f t="shared" si="7"/>
-        <v>5.2370204420334743E-2</v>
+        <v>1.7215687776483024E-2</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -8606,15 +8614,15 @@
       </c>
       <c r="D239">
         <f>[2]excluding_NM!G239</f>
-        <v>0.38461639812569037</v>
+        <v>0.41474298934144382</v>
       </c>
       <c r="E239">
         <f t="shared" si="6"/>
-        <v>2.5620547674309602E-2</v>
+        <v>-4.5060435414438493E-3</v>
       </c>
       <c r="F239">
         <f t="shared" si="7"/>
-        <v>2.5620547674309602E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -8630,15 +8638,15 @@
       </c>
       <c r="D240">
         <f>[2]excluding_NM!G240</f>
-        <v>0.29272714420925044</v>
+        <v>0.31565614841791922</v>
       </c>
       <c r="E240">
         <f t="shared" si="6"/>
-        <v>0.22651366267074952</v>
+        <v>0.20358465846208074</v>
       </c>
       <c r="F240">
         <f t="shared" si="7"/>
-        <v>0.22651366267074952</v>
+        <v>0.20358465846208074</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -8654,15 +8662,15 @@
       </c>
       <c r="D241">
         <f>[2]excluding_NM!G241</f>
-        <v>0.25823779169069416</v>
+        <v>0.27846528179417651</v>
       </c>
       <c r="E241">
         <f t="shared" si="6"/>
-        <v>0.20450469726930581</v>
+        <v>0.18427720716582346</v>
       </c>
       <c r="F241">
         <f t="shared" si="7"/>
-        <v>0.20450469726930581</v>
+        <v>0.18427720716582346</v>
       </c>
     </row>
   </sheetData>

--- a/Streamflow_Generation/consumptive.xlsx
+++ b/Streamflow_Generation/consumptive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyungmi1\Documents\Code\project-westernwaternetwork\Streamflow_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6466F627-FD01-42AA-915A-3D6F1685CBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24FD6CE-C418-4A47-B487-1FA1F60FA443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91C0396D-DF00-9F4F-9744-9ABABC1C2C0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91C0396D-DF00-9F4F-9744-9ABABC1C2C0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2884,8 +2884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE19C92E-C21C-DA48-AC64-49808EC8D5D1}">
   <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F241"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="H220" sqref="H220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
